--- a/ehr/tools/PrePopulateData/Task Data.xlsx
+++ b/ehr/tools/PrePopulateData/Task Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="1661">
   <si>
     <t>tasktype</t>
   </si>
@@ -4978,6 +4978,33 @@
   </si>
   <si>
     <t>@e-00040</t>
+  </si>
+  <si>
+    <t>Blood Chemistry</t>
+  </si>
+  <si>
+    <t>Virology Runs</t>
+  </si>
+  <si>
+    <t>Hematology Runs</t>
+  </si>
+  <si>
+    <t>Hematology Results</t>
+  </si>
+  <si>
+    <t>Immunology Runs</t>
+  </si>
+  <si>
+    <t>Immunology Results</t>
+  </si>
+  <si>
+    <t>Blood Chemistry Runs</t>
+  </si>
+  <si>
+    <t>Blood Chemistry Results</t>
+  </si>
+  <si>
+    <t>Task,Assay</t>
   </si>
 </sst>
 </file>
@@ -5338,10 +5365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="E12" sqref="E12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5384,7 +5411,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E11" si="0">CONCATENATE("['",A3,"', '",B3,"', '",C3,"', '",D3,"'],")</f>
+        <f t="shared" ref="E3:E15" si="0">CONCATENATE("['",A3,"', '",B3,"', '",C3,"', '",D3,"'],")</f>
         <v>['Irregular Observations', 'Task', '', ''],</v>
       </c>
     </row>
@@ -5480,8 +5507,56 @@
         <v>433</v>
       </c>
       <c r="E11" t="str">
+        <f>CONCATENATE("['",A11,"', '",B11,"', '",C11,"', '",D11,"'],")</f>
+        <v>['Housing Request', 'Request', '', ''],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>['Housing Request', 'Request', '', ''],</v>
+        <v>['Virology', 'Task', '', ''],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>['Hematology', 'Task', '', ''],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>['Immunology', 'Task', '', ''],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>['Blood Chemistry', 'Task', '', ''],</v>
       </c>
     </row>
   </sheetData>
@@ -5492,11 +5567,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5590,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L47" si="0">CONCATENATE("['",A3,"' ,'",B3,"' ,'",C3,"' ,'",D3,"' ,'",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"', '",K3,"'],")</f>
+        <f t="shared" ref="L3:L59" si="0">CONCATENATE("['",A3,"' ,'",B3,"' ,'",C3,"' ,'",D3,"' ,'",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"', '",K3,"'],")</f>
         <v>['Physical Exam' ,'formSections' ,'ehr-abstractpanel' ,'2' ,'', '', '', '', '', '', ''],</v>
       </c>
     </row>
@@ -6750,6 +6825,291 @@
       <c r="L47" t="str">
         <f t="shared" si="0"/>
         <v>['Housing Request' ,'formSections' ,'ehr-gridformpanel' ,'2' ,'Housing', 'study', '', 'Task,Request', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>['Virology' ,'formSections' ,'ehr-abstractpanel' ,'1' ,'', '', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>['Virology' ,'formSections' ,'ehr-formpanel' ,'2' ,'Virology Runs', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v>['Virology' ,'formSections' ,'ehr-gridformpanel' ,'' ,'Virology Results', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>['Hematology' ,'formSections' ,'ehr-abstractpanel' ,'1' ,'', '', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v>['Hematology' ,'formSections' ,'ehr-formpanel' ,'2' ,'Hematology Runs', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v>['Hematology' ,'formSections' ,'ehr-gridformpanel' ,'3' ,'Hematology Results', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v>['Immunology' ,'formSections' ,'ehr-abstractpanel' ,'1' ,'', '', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v>['Immunology' ,'formSections' ,'ehr-formpanel' ,'2' ,'Immunology Runs', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>['Immunology' ,'formSections' ,'ehr-gridformpanel' ,'3' ,'Immunology Results', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>['Blood Chemistry' ,'formSections' ,'ehr-abstractpanel' ,'1' ,'', '', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v>['Blood Chemistry' ,'formSections' ,'ehr-formpanel' ,'2' ,'Blood Chemistry Runs', 'study', '', 'Task,Assay', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v>['Blood Chemistry' ,'formSections' ,'ehr-gridformpanel' ,'3' ,'Blood Chemistry Results', 'study', '', 'Task,Assay', '', '', ''],</v>
       </c>
     </row>
   </sheetData>

--- a/ehr/tools/PrePopulateData/Task Data.xlsx
+++ b/ehr/tools/PrePopulateData/Task Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19155" windowHeight="9675" tabRatio="717" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19155" windowHeight="9675" tabRatio="750" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="2" r:id="rId1"/>
@@ -13,17 +13,19 @@
     <sheet name="Reports" sheetId="4" r:id="rId4"/>
     <sheet name="snomed subsets" sheetId="5" r:id="rId5"/>
     <sheet name="formTemplates" sheetId="6" r:id="rId6"/>
-    <sheet name="formTemplateRecords" sheetId="7" r:id="rId7"/>
-    <sheet name="Charge Types" sheetId="8" r:id="rId8"/>
-    <sheet name="virology" sheetId="9" r:id="rId9"/>
-    <sheet name="antibiotic" sheetId="10" r:id="rId10"/>
+    <sheet name="qcPermissionMap" sheetId="11" r:id="rId7"/>
+    <sheet name="QCmetadata" sheetId="12" r:id="rId8"/>
+    <sheet name="formTemplateRecords" sheetId="7" r:id="rId9"/>
+    <sheet name="Charge Types" sheetId="8" r:id="rId10"/>
+    <sheet name="virology" sheetId="9" r:id="rId11"/>
+    <sheet name="antibiotic" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="1710">
   <si>
     <t>tasktype</t>
   </si>
@@ -5066,6 +5068,93 @@
   </si>
   <si>
     <t>l-50601</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>readOwn</t>
+  </si>
+  <si>
+    <t>updateOwn</t>
+  </si>
+  <si>
+    <t>deleteOwn</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>Data Admin</t>
+  </si>
+  <si>
+    <t>Requestor</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>Review Required</t>
+  </si>
+  <si>
+    <t>Request: Pending</t>
+  </si>
+  <si>
+    <t>Delete Requested</t>
+  </si>
+  <si>
+    <t>Request: Denied</t>
+  </si>
+  <si>
+    <t>Request: Approved</t>
+  </si>
+  <si>
+    <t>Request: Complete</t>
+  </si>
+  <si>
+    <t>Submitter</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>DraftData</t>
+  </si>
+  <si>
+    <t>isDeleted</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>qcStateLabel</t>
+  </si>
+  <si>
+    <t>isRequest</t>
   </si>
 </sst>
 </file>
@@ -5715,6 +5804,4452 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D271"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2">
+        <v>2.41</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("['",A2,"', '",B2,"', '",C2,"'],")</f>
+        <v>['PPE', 'Standard (gloves, mask, booties, hair, face, shield) per person', '2.41'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3">
+        <v>7.53</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE("['",A3,"', '",B3,"', '",C3,"'],")</f>
+        <v>['PPE', 'SIV Area (gloves, mask, booties, Bouffants, face, shield, tyvek suit) per person', '7.53'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4">
+        <v>9.65</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>['PPE', 'Quarantine or SIV infection (gloves, N 95 mask, booties, hair, face, shield, tyvek suit) per person', '9.65'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Tech 1 time per hour', '45'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Tech 2 time per hour', '45'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Tech time (Gene Exp. Assay)', '45'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Tech time (Blood Process.)', '45'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Vet tech time per hour', '75'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Surgery tech time per hour', '85'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11">
+        <v>160</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Vet time per hour', '160'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12">
+        <v>36.67</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'After hours treatment', '36.67'],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Anesthesia fee', '15'],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14">
+        <v>37.72</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Care staff time per hour', '37.72'],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Emergency fee', '50'],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Medication fee/dose', '5'],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'Post-op monitoring fee/day', '8'],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'OR fee/hr', '20'],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>['Labor ', 'AFTER HOURS CARE FEE', '50'],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20">
+        <v>170.42</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Biopsy', '170.42'],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'CBC', '20'],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Chemistry', '34'],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Cytology of FNA', '18'],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24">
+        <v>21.5</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Cytospin (for cytology)', '21.5'],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'EIA', '42'],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, bronchial', '40'],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, environmental', '19'],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28">
+        <v>105</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, fecal', '105'],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29">
+        <v>50.1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, fungal', '50.1'],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30">
+        <v>37.1</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, genital', '37.1'],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, headcap swab', '60'],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>464</v>
+      </c>
+      <c r="B32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32">
+        <v>23.5</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, nasal', '23.5'],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, organ', '60'],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, superficial', '44'],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, tissue', '60'],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36">
+        <v>34.5</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Culture, urine', '34.5'],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37">
+        <v>37.5</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'O&amp;P concentration', '37.5'],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>464</v>
+      </c>
+      <c r="B38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'O&amp;P wet prep', '28'],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>464</v>
+      </c>
+      <c r="B39" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39">
+        <v>33</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Sensitivity', '33'],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'STAT charge/animal', '15'],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clincal Pathology', 'Urinalysis w/microscopic exam', '18'],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>['Assays/Analysis', 'Data Analysis', '8'],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>713</v>
+      </c>
+      <c r="B43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>['Assays/Analysis', 'Glucose analysis', '5'],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>713</v>
+      </c>
+      <c r="B44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44">
+        <v>7.11</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>['Assays/Analysis', 'Glucagon assay', '7.11'],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>713</v>
+      </c>
+      <c r="B45" t="s">
+        <v>488</v>
+      </c>
+      <c r="C45">
+        <v>10.17</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>['Assays/Analysis', 'Insulin Assay', '10.17'],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>489</v>
+      </c>
+      <c r="B46" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46">
+        <v>22.5</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Shipping - Infectious/dangerous goods', '22.5'],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>489</v>
+      </c>
+      <c r="B47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C47">
+        <v>50.32</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Infectious box - infecon 5000(0.5L)', '50.32'],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" t="s">
+        <v>492</v>
+      </c>
+      <c r="C48">
+        <v>51.89</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Infectious box - infecon 5500(1L)', '51.89'],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>489</v>
+      </c>
+      <c r="B49" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49">
+        <v>11.25</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Shipment - Regular', '11.25'],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>489</v>
+      </c>
+      <c r="B50" t="s">
+        <v>494</v>
+      </c>
+      <c r="C50">
+        <v>7.94</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Shipping Box - insulated (large)', '7.94'],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>489</v>
+      </c>
+      <c r="B51" t="s">
+        <v>495</v>
+      </c>
+      <c r="C51">
+        <v>6.01</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>['Shipment Fees', 'Shipping Box - insulated (small)', '6.01'],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Acetominophen Drops (infant), 30ml/btl', '0'],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53">
+        <v>2.29</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Artificial Tears Ointment, 1/8 oz', '2.29'],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>496</v>
+      </c>
+      <c r="B54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C54">
+        <v>3.19</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Atropine sulfate 1/120g, 100ml btl', '3.19'],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>496</v>
+      </c>
+      <c r="B55" t="s">
+        <v>500</v>
+      </c>
+      <c r="C55">
+        <v>0.26</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Atropine/ml', '0.26'],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56">
+        <v>0.38</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Azathioprine per tablet', '0.38'],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'B complex/ml', '0.02'],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58">
+        <v>17.55</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Baytril 20ml vial', '17.55'],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59">
+        <v>0.1</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Benedryl/caplet', '0.1'],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>496</v>
+      </c>
+      <c r="B60" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60">
+        <v>0.37</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Beuthanasia/ml', '0.37'],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>496</v>
+      </c>
+      <c r="B61" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61">
+        <v>4.28</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Buprenorphine/ml', '4.28'],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62">
+        <v>1.62</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Carprofen (injectable/ml)', '1.62'],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" t="s">
+        <v>508</v>
+      </c>
+      <c r="C63">
+        <v>0.23</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Carprofen (oral/tablet)', '0.23'],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>496</v>
+      </c>
+      <c r="B64" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64">
+        <v>1.86</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Cefazolin/vial', '1.86'],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Cephalexin--100 ml bottle', '18.9'],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>496</v>
+      </c>
+      <c r="B66" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66">
+        <v>0.19</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>['DRUGS', 'Cephalexin/ml (100 ml bottle)', '0.19'],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67">
+        <v>0.16</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">CONCATENATE("['",A67,"', '",B67,"', '",C67,"'],")</f>
+        <v>['DRUGS', 'Cephalexin/ml (200 ml bottle)', '0.16'],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68">
+        <v>31.5</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Cephalexin/ml--200 ml bottle', '31.5'],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>496</v>
+      </c>
+      <c r="B69" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Cetacaine spray, 56g/use', '0.2'],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70">
+        <v>0.34</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Cimetidine/ml', '0.34'],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Cisapride/200 ml bottle', '32.45'],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72">
+        <v>0.16</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Cisapride/ml', '0.16'],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73">
+        <v>9.48</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Clomipramine/bottle', '9.48'],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>519</v>
+      </c>
+      <c r="C74">
+        <v>59.23</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Depo Injection - 1ml  injection', '59.23'],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75" t="s">
+        <v>520</v>
+      </c>
+      <c r="C75">
+        <v>70.5</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Depo-provera/syringe', '70.5'],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B76" t="s">
+        <v>521</v>
+      </c>
+      <c r="C76">
+        <v>0.19</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Dexamethasone/ml', '0.19'],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" t="s">
+        <v>522</v>
+      </c>
+      <c r="C77">
+        <v>6.15</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Dexdomitor per dose', '6.15'],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" t="s">
+        <v>523</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Dextrose Injectible, 50%; 50ml/vl', '4'],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s">
+        <v>524</v>
+      </c>
+      <c r="C79">
+        <v>0.24</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Diazepam/ml', '0.24'],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C80">
+        <v>12.05</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Diphenhydramine HCL inj/use', '12.05'],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>496</v>
+      </c>
+      <c r="B81" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81">
+        <v>0.1</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Diphenhydramine/tab', '0.1'],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" t="s">
+        <v>527</v>
+      </c>
+      <c r="C82">
+        <v>1.21</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Diphenhydramine/vial', '1.21'],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>496</v>
+      </c>
+      <c r="B83" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83">
+        <v>0.59</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Enalapril Maleate per tablet', '0.59'],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>496</v>
+      </c>
+      <c r="B84" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84">
+        <v>0.88</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Enrofloxacin/ml', '0.88'],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>496</v>
+      </c>
+      <c r="B85" t="s">
+        <v>530</v>
+      </c>
+      <c r="C85">
+        <v>0.1</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Epinephrine/cc', '0.1'],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>531</v>
+      </c>
+      <c r="C86">
+        <v>0.1</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Epinephrine/ml', '0.1'],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87">
+        <v>1.45</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Estrumate/ml', '1.45'],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" t="s">
+        <v>533</v>
+      </c>
+      <c r="C88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fiber bites', '0.07'],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89" t="s">
+        <v>534</v>
+      </c>
+      <c r="C89">
+        <v>0.11</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fiber laxitive per tablet', '0.11'],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>535</v>
+      </c>
+      <c r="C90">
+        <v>0.08</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fish Oil/capsule', '0.08'],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" t="s">
+        <v>536</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fluid bag', '2'],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>537</v>
+      </c>
+      <c r="C92">
+        <v>0.16</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Flunixin Mcglumine per ml', '0.16'],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fluoxetine/bottle', '39.95'],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
+        <v>539</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Fluoxetine/capsule', '0.4'],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" t="s">
+        <v>540</v>
+      </c>
+      <c r="C95">
+        <v>0.23</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Furosamide/ml', '0.23'],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>496</v>
+      </c>
+      <c r="B96" t="s">
+        <v>541</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Gabapentin per bottle', '8'],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" t="s">
+        <v>542</v>
+      </c>
+      <c r="C97">
+        <v>0.08</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Gabapentin per tablet', '0.08'],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>496</v>
+      </c>
+      <c r="B98" t="s">
+        <v>543</v>
+      </c>
+      <c r="C98">
+        <v>0.13</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Glycopyrrolate per ml', '0.13'],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>496</v>
+      </c>
+      <c r="B99" t="s">
+        <v>544</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'GoLytely, GI Lavage, 1gal', '0'],</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>496</v>
+      </c>
+      <c r="B100" t="s">
+        <v>545</v>
+      </c>
+      <c r="C100">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Hep Saline', '0.58'],</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>496</v>
+      </c>
+      <c r="B101" t="s">
+        <v>546</v>
+      </c>
+      <c r="C101">
+        <v>0.76</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Heparin/bottle', '0.76'],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>496</v>
+      </c>
+      <c r="B102" t="s">
+        <v>547</v>
+      </c>
+      <c r="C102">
+        <v>0.08</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Heparin/ml', '0.08'],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>496</v>
+      </c>
+      <c r="B103" t="s">
+        <v>548</v>
+      </c>
+      <c r="C103">
+        <v>3.46</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Insulin (Humulin-N)/ml', '3.46'],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>496</v>
+      </c>
+      <c r="B104" t="s">
+        <v>549</v>
+      </c>
+      <c r="C104">
+        <v>7.8</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Insulin (Lantis)/ml', '7.8'],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>496</v>
+      </c>
+      <c r="B105" t="s">
+        <v>550</v>
+      </c>
+      <c r="C105">
+        <v>0.03</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Iron/ml', '0.03'],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" t="s">
+        <v>551</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Isoflorane/hr', '1'],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>496</v>
+      </c>
+      <c r="B107" t="s">
+        <v>552</v>
+      </c>
+      <c r="C107">
+        <v>0.46</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Ivermectin (injectible)', '0.46'],</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>496</v>
+      </c>
+      <c r="B108" t="s">
+        <v>553</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Ketamine dose', '1'],</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>496</v>
+      </c>
+      <c r="B109" t="s">
+        <v>554</v>
+      </c>
+      <c r="C109">
+        <v>13.38</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Ketoconazole/bottle', '13.38'],</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>496</v>
+      </c>
+      <c r="B110" t="s">
+        <v>555</v>
+      </c>
+      <c r="C110">
+        <v>1.28</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Ketoprofen/cc', '1.28'],</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>496</v>
+      </c>
+      <c r="B111" t="s">
+        <v>556</v>
+      </c>
+      <c r="C111">
+        <v>1.44</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Ketoprofen/ml', '1.44'],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>496</v>
+      </c>
+      <c r="B112" t="s">
+        <v>557</v>
+      </c>
+      <c r="C112">
+        <v>6.33</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Lidocaine 250ml bottle', '6.33'],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>496</v>
+      </c>
+      <c r="B113" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113">
+        <v>0.02</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Lidocaine/ml', '0.02'],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>496</v>
+      </c>
+      <c r="B114" t="s">
+        <v>559</v>
+      </c>
+      <c r="C114">
+        <v>0.47</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Loperamide/tablet', '0.47'],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>496</v>
+      </c>
+      <c r="B115" t="s">
+        <v>560</v>
+      </c>
+      <c r="C115">
+        <v>1.61</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'LRS/bag', '1.61'],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>496</v>
+      </c>
+      <c r="B116" t="s">
+        <v>561</v>
+      </c>
+      <c r="C116">
+        <v>121.54</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Mamalian tuberculin/10 ml vial', '121.54'],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>496</v>
+      </c>
+      <c r="B117" t="s">
+        <v>562</v>
+      </c>
+      <c r="C117">
+        <v>3.3</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Medetomidine per dose', '3.3'],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>496</v>
+      </c>
+      <c r="B118" t="s">
+        <v>563</v>
+      </c>
+      <c r="C118">
+        <v>86.9</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Meloxicam per bottle', '86.9'],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" t="s">
+        <v>564</v>
+      </c>
+      <c r="C119">
+        <v>6.81</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Meloxicam per ml (injectable)', '6.81'],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>496</v>
+      </c>
+      <c r="B120" t="s">
+        <v>565</v>
+      </c>
+      <c r="C120">
+        <v>0.48</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Meloxicam per ml (oral)', '0.48'],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>496</v>
+      </c>
+      <c r="B121" t="s">
+        <v>566</v>
+      </c>
+      <c r="C121">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Metoclopramide/ml', '0.28'],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>496</v>
+      </c>
+      <c r="B122" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122">
+        <v>0.22</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Metronidazole/ml', '0.22'],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s">
+        <v>568</v>
+      </c>
+      <c r="C123">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Midazolam/bottle', '9.95'],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>496</v>
+      </c>
+      <c r="B124" t="s">
+        <v>569</v>
+      </c>
+      <c r="C124">
+        <v>7.29</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Midazolam/ml', '7.29'],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>496</v>
+      </c>
+      <c r="B125" t="s">
+        <v>570</v>
+      </c>
+      <c r="C125">
+        <v>0.22</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Multivitamins/pill', '0.22'],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>496</v>
+      </c>
+      <c r="B126" t="s">
+        <v>571</v>
+      </c>
+      <c r="C126">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'NaCL  0.9% - 250ml bag', '0.56'],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>496</v>
+      </c>
+      <c r="B127" t="s">
+        <v>572</v>
+      </c>
+      <c r="C127">
+        <v>0.82</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'NaCL 0.9% - 1000ml bag', '0.82'],</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>496</v>
+      </c>
+      <c r="B128" t="s">
+        <v>573</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'NaCL 0.9% - 30ml btl', '0'],</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>496</v>
+      </c>
+      <c r="B129" t="s">
+        <v>574</v>
+      </c>
+      <c r="C129">
+        <v>0.16</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Nexaband liquid/use', '0.16'],</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>496</v>
+      </c>
+      <c r="B130" t="s">
+        <v>575</v>
+      </c>
+      <c r="C130">
+        <v>0.04</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>['DRUGS', 'Oxytocin/ml', '0.04'],</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>496</v>
+      </c>
+      <c r="B131" t="s">
+        <v>576</v>
+      </c>
+      <c r="C131">
+        <v>0.09</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">CONCATENATE("['",A131,"', '",B131,"', '",C131,"'],")</f>
+        <v>['DRUGS', 'Panacur (fenbendazole) per ml', '0.09'],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>496</v>
+      </c>
+      <c r="B132" t="s">
+        <v>577</v>
+      </c>
+      <c r="C132">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Pancreazyne per teaspoon', '1.14'],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>496</v>
+      </c>
+      <c r="B133" t="s">
+        <v>578</v>
+      </c>
+      <c r="C133">
+        <v>0.06</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Penicillin/ml', '0.06'],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>496</v>
+      </c>
+      <c r="B134" t="s">
+        <v>579</v>
+      </c>
+      <c r="C134">
+        <v>0.44</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Pepto Bismuth/oz.', '0.44'],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>496</v>
+      </c>
+      <c r="B135" t="s">
+        <v>580</v>
+      </c>
+      <c r="C135">
+        <v>5.01</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Pioglitazone/15mg tablet', '5.01'],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>496</v>
+      </c>
+      <c r="B136" t="s">
+        <v>581</v>
+      </c>
+      <c r="C136">
+        <v>8.31</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Pioglitazone/45mg tablet', '8.31'],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>496</v>
+      </c>
+      <c r="B137" t="s">
+        <v>582</v>
+      </c>
+      <c r="C137">
+        <v>1.87</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Plasmalyte/bag', '1.87'],</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>496</v>
+      </c>
+      <c r="B138" t="s">
+        <v>583</v>
+      </c>
+      <c r="C138">
+        <v>3.05</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Plasmalyte/bag--vet school', '3.05'],</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>496</v>
+      </c>
+      <c r="B139" t="s">
+        <v>584</v>
+      </c>
+      <c r="C139">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Potassium Chloride/vial', '1.1'],</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>496</v>
+      </c>
+      <c r="B140" t="s">
+        <v>585</v>
+      </c>
+      <c r="C140">
+        <v>12.19</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Praziquantel (3 doses)', '12.19'],</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>496</v>
+      </c>
+      <c r="B141" t="s">
+        <v>586</v>
+      </c>
+      <c r="C141">
+        <v>17.5</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Prednisone/bottle', '17.5'],</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>496</v>
+      </c>
+      <c r="B142" t="s">
+        <v>587</v>
+      </c>
+      <c r="C142">
+        <v>0.02</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Prednisone/tablet', '0.02'],</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>496</v>
+      </c>
+      <c r="B143" t="s">
+        <v>588</v>
+      </c>
+      <c r="C143">
+        <v>0.5</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Sodium bicarb/ml', '0.5'],</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>496</v>
+      </c>
+      <c r="B144" t="s">
+        <v>589</v>
+      </c>
+      <c r="C144">
+        <v>38.79</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Telazol/bottle', '38.79'],</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>496</v>
+      </c>
+      <c r="B145" t="s">
+        <v>590</v>
+      </c>
+      <c r="C145">
+        <v>0.25</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Tetracycline/ml', '0.25'],</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>496</v>
+      </c>
+      <c r="B146" t="s">
+        <v>591</v>
+      </c>
+      <c r="C146">
+        <v>0.54</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'TMS/ml (injectible)', '0.54'],</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>496</v>
+      </c>
+      <c r="B147" t="s">
+        <v>592</v>
+      </c>
+      <c r="C147">
+        <v>0.03</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'TMS/ml (oral)', '0.03'],</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>496</v>
+      </c>
+      <c r="B148" t="s">
+        <v>593</v>
+      </c>
+      <c r="C148">
+        <v>0.27</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'TMS/tablet', '0.27'],</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>496</v>
+      </c>
+      <c r="B149" t="s">
+        <v>594</v>
+      </c>
+      <c r="C149">
+        <v>0.26</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Tylenol/ml', '0.26'],</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>496</v>
+      </c>
+      <c r="B150" t="s">
+        <v>595</v>
+      </c>
+      <c r="C150">
+        <v>0.08</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Tylenol/tablet', '0.08'],</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>496</v>
+      </c>
+      <c r="B151" t="s">
+        <v>596</v>
+      </c>
+      <c r="C151">
+        <v>45.54</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Tylosin Powder (100g bottle)', '45.54'],</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>496</v>
+      </c>
+      <c r="B152" t="s">
+        <v>597</v>
+      </c>
+      <c r="C152">
+        <v>0.02</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Vitamin C/ml', '0.02'],</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>496</v>
+      </c>
+      <c r="B153" t="s">
+        <v>598</v>
+      </c>
+      <c r="C153">
+        <v>0.11</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Vitamin K/ml', '0.11'],</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>496</v>
+      </c>
+      <c r="B154" t="s">
+        <v>599</v>
+      </c>
+      <c r="C154">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Xylazine/bottle', '16.4'],</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>496</v>
+      </c>
+      <c r="B155" t="s">
+        <v>600</v>
+      </c>
+      <c r="C155">
+        <v>36</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Yohimbine/bottle', '36'],</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>496</v>
+      </c>
+      <c r="B156" t="s">
+        <v>601</v>
+      </c>
+      <c r="C156">
+        <v>40</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Zithromax/bottle', '40'],</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>496</v>
+      </c>
+      <c r="B157" t="s">
+        <v>602</v>
+      </c>
+      <c r="C157">
+        <v>0.61</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>['DRUGS', 'Zithromax/ml', '0.61'],</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>603</v>
+      </c>
+      <c r="B158" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158">
+        <v>0.01</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Alcohol prep pads', '0.01'],</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>603</v>
+      </c>
+      <c r="B159" t="s">
+        <v>605</v>
+      </c>
+      <c r="C159">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Biohazard bags, 6x10, each', '0.14'],</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>603</v>
+      </c>
+      <c r="B160" t="s">
+        <v>606</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Biopsy Pack', '7'],</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>603</v>
+      </c>
+      <c r="B161" t="s">
+        <v>607</v>
+      </c>
+      <c r="C161">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Biopsy skin punch', '4.4'],</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>603</v>
+      </c>
+      <c r="B162" t="s">
+        <v>608</v>
+      </c>
+      <c r="C162">
+        <v>0.21</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Biopsy Cassettes', '0.21'],</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>603</v>
+      </c>
+      <c r="B163" t="s">
+        <v>609</v>
+      </c>
+      <c r="C163">
+        <v>0.3</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Biopsy Cassettes - microsette', '0.3'],</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>603</v>
+      </c>
+      <c r="B164" t="s">
+        <v>610</v>
+      </c>
+      <c r="C164">
+        <v>0.2</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Blood Collection Micro. Tubes  - All Sizes', '0.2'],</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>603</v>
+      </c>
+      <c r="B165" t="s">
+        <v>611</v>
+      </c>
+      <c r="C165">
+        <v>1.9</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Catheter IV 20G or 25G', '1.9'],</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>603</v>
+      </c>
+      <c r="B166" t="s">
+        <v>612</v>
+      </c>
+      <c r="C166">
+        <v>1.5</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Catheter, Butterfly', '1.5'],</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>603</v>
+      </c>
+      <c r="B167" t="s">
+        <v>613</v>
+      </c>
+      <c r="C167">
+        <v>27.9</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Cidex Plus disinfectant- gallon', '27.9'],</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>603</v>
+      </c>
+      <c r="B168" t="s">
+        <v>614</v>
+      </c>
+      <c r="C168">
+        <v>0.09</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Chux Pad', '0.09'],</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>603</v>
+      </c>
+      <c r="B169" t="s">
+        <v>615</v>
+      </c>
+      <c r="C169">
+        <v>0.01</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Cotton Tip applicators 6"', '0.01'],</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>603</v>
+      </c>
+      <c r="B170" t="s">
+        <v>616</v>
+      </c>
+      <c r="C170">
+        <v>0.26</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Cryovials - 2 ml', '0.26'],</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>603</v>
+      </c>
+      <c r="B171" t="s">
+        <v>617</v>
+      </c>
+      <c r="C171">
+        <v>4.5</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Drape - Paper (Sterile)', '4.5'],</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>603</v>
+      </c>
+      <c r="B172" t="s">
+        <v>618</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Endo Tubes, disposable/ all sizes', '8'],</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>603</v>
+      </c>
+      <c r="B173" t="s">
+        <v>619</v>
+      </c>
+      <c r="C173">
+        <v>11.09</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Ethanol 70% (1L)', '11.09'],</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>603</v>
+      </c>
+      <c r="B174" t="s">
+        <v>620</v>
+      </c>
+      <c r="C174">
+        <v>0.19</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Falcon Tube 15ml or 50ml', '0.19'],</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>603</v>
+      </c>
+      <c r="B175" t="s">
+        <v>621</v>
+      </c>
+      <c r="C175">
+        <v>0.19</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Falcon Tube 50 ml', '0.19'],</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>603</v>
+      </c>
+      <c r="B176" t="s">
+        <v>622</v>
+      </c>
+      <c r="C176">
+        <v>1.03</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Feeding tube-red rubber 10Fr or 8Fr', '1.03'],</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>603</v>
+      </c>
+      <c r="B177" t="s">
+        <v>623</v>
+      </c>
+      <c r="C177">
+        <v>0.2</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Filter Paper/each', '0.2'],</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>603</v>
+      </c>
+      <c r="B178" t="s">
+        <v>624</v>
+      </c>
+      <c r="C178">
+        <v>0.1</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Gel Stips (Electoejaculation)', '0.1'],</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>603</v>
+      </c>
+      <c r="B179" t="s">
+        <v>625</v>
+      </c>
+      <c r="C179">
+        <v>1.27</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Gloves-Sterile Surgeons - all sizes', '1.27'],</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>603</v>
+      </c>
+      <c r="B180" t="s">
+        <v>626</v>
+      </c>
+      <c r="C180">
+        <v>0.5</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Glucose strips', '0.5'],</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>603</v>
+      </c>
+      <c r="B181" t="s">
+        <v>627</v>
+      </c>
+      <c r="C181">
+        <v>0.75</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Injection Plug - Surflo', '0.75'],</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>603</v>
+      </c>
+      <c r="B182" t="s">
+        <v>628</v>
+      </c>
+      <c r="C182">
+        <v>1.73</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'IV Extension Set, 30"', '1.73'],</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>603</v>
+      </c>
+      <c r="B183" t="s">
+        <v>629</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'IV line', '2'],</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>603</v>
+      </c>
+      <c r="B184" t="s">
+        <v>630</v>
+      </c>
+      <c r="C184">
+        <v>0.06</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Needles - Hypodermic, All Sizes', '0.06'],</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>603</v>
+      </c>
+      <c r="B185" t="s">
+        <v>631</v>
+      </c>
+      <c r="C185">
+        <v>2.27</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Needles, spinal tap- 18&amp;20 G ', '2.27'],</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>603</v>
+      </c>
+      <c r="B186" t="s">
+        <v>632</v>
+      </c>
+      <c r="C186">
+        <v>1.65</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Razor', '1.65'],</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>603</v>
+      </c>
+      <c r="B187" t="s">
+        <v>633</v>
+      </c>
+      <c r="C187">
+        <v>0.1</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'RPMI 1640/ml', '0.1'],</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>603</v>
+      </c>
+      <c r="B188" t="s">
+        <v>634</v>
+      </c>
+      <c r="C188">
+        <v>0.01</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Sponges - all sizes', '0.01'],</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>603</v>
+      </c>
+      <c r="B189" t="s">
+        <v>635</v>
+      </c>
+      <c r="C189">
+        <v>2.52</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Sterile Water for Irrigation - 1L', '2.52'],</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>603</v>
+      </c>
+      <c r="B190" t="s">
+        <v>636</v>
+      </c>
+      <c r="C190">
+        <v>0.92</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Stop cock, 3-way, sterile/ each', '0.92'],</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>603</v>
+      </c>
+      <c r="B191" t="s">
+        <v>637</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Suture - all sizes  ??', '3'],</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>603</v>
+      </c>
+      <c r="B192" t="s">
+        <v>638</v>
+      </c>
+      <c r="C192">
+        <v>53.3</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Syringe Caps / Box of 1000', '53.3'],</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>603</v>
+      </c>
+      <c r="B193" t="s">
+        <v>639</v>
+      </c>
+      <c r="C193">
+        <v>0.05</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Syringe Caps / Each', '0.05'],</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>603</v>
+      </c>
+      <c r="B194" t="s">
+        <v>640</v>
+      </c>
+      <c r="C194">
+        <v>0.1</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>['Supplies', 'Syringes - 1cc', '0.1'],</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>603</v>
+      </c>
+      <c r="B195" t="s">
+        <v>641</v>
+      </c>
+      <c r="C195">
+        <v>0.04</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">CONCATENATE("['",A195,"', '",B195,"', '",C195,"'],")</f>
+        <v>['Supplies', 'Syringes - 3 cc', '0.04'],</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>603</v>
+      </c>
+      <c r="B196" t="s">
+        <v>642</v>
+      </c>
+      <c r="C196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Syringes - 5cc', '0.14'],</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>603</v>
+      </c>
+      <c r="B197" t="s">
+        <v>643</v>
+      </c>
+      <c r="C197">
+        <v>0.15</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Syringes - 10cc', '0.15'],</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>603</v>
+      </c>
+      <c r="B198" t="s">
+        <v>644</v>
+      </c>
+      <c r="C198">
+        <v>0.41</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Syringes - 20cc', '0.41'],</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>603</v>
+      </c>
+      <c r="B199" t="s">
+        <v>645</v>
+      </c>
+      <c r="C199">
+        <v>1.02</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Syringes - 60cc', '1.02'],</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>603</v>
+      </c>
+      <c r="B200" t="s">
+        <v>646</v>
+      </c>
+      <c r="C200">
+        <v>0.11</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Wypalls each', '0.11'],</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>603</v>
+      </c>
+      <c r="B201" t="s">
+        <v>647</v>
+      </c>
+      <c r="C201">
+        <v>0.2</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Ultrasound gel', '0.2'],</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>603</v>
+      </c>
+      <c r="B202" t="s">
+        <v>648</v>
+      </c>
+      <c r="C202">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Vacuum Filter (1L)', '10.03'],</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>603</v>
+      </c>
+      <c r="B203" t="s">
+        <v>649</v>
+      </c>
+      <c r="C203">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Gloves (double gloving)', '0.07'],</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>603</v>
+      </c>
+      <c r="B204" t="s">
+        <v>650</v>
+      </c>
+      <c r="C204">
+        <v>0.26</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Shoe covers', '0.26'],</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>603</v>
+      </c>
+      <c r="B205" t="s">
+        <v>651</v>
+      </c>
+      <c r="C205">
+        <v>2.25</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Face mask (N95)', '2.25'],</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>603</v>
+      </c>
+      <c r="B206" t="s">
+        <v>652</v>
+      </c>
+      <c r="C206">
+        <v>0.11</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Bouffants/boun. caps', '0.11'],</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>603</v>
+      </c>
+      <c r="B207" t="s">
+        <v>653</v>
+      </c>
+      <c r="C207">
+        <v>1.37</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Face Shield', '1.37'],</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>603</v>
+      </c>
+      <c r="B208" t="s">
+        <v>654</v>
+      </c>
+      <c r="C208">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Tyvek suits', '4.6'],</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>603</v>
+      </c>
+      <c r="B209" t="s">
+        <v>655</v>
+      </c>
+      <c r="C209">
+        <v>0.5</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'scalpel blade', '0.5'],</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>603</v>
+      </c>
+      <c r="B210" t="s">
+        <v>656</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'prep pack', '5'],</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>603</v>
+      </c>
+      <c r="B211" t="s">
+        <v>657</v>
+      </c>
+      <c r="C211">
+        <v>0.75</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Scrub brush', '0.75'],</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>603</v>
+      </c>
+      <c r="B212" t="s">
+        <v>658</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'gown', '10'],</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>603</v>
+      </c>
+      <c r="B213" t="s">
+        <v>659</v>
+      </c>
+      <c r="C213">
+        <v>0.5</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'eye lube', '0.5'],</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>603</v>
+      </c>
+      <c r="B214" t="s">
+        <v>660</v>
+      </c>
+      <c r="C214">
+        <v>2.65</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'T-port', '2.65'],</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>603</v>
+      </c>
+      <c r="B215" t="s">
+        <v>661</v>
+      </c>
+      <c r="C215">
+        <v>0.75</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'PRN', '0.75'],</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>603</v>
+      </c>
+      <c r="B216" t="s">
+        <v>662</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Iv line', '2'],</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>603</v>
+      </c>
+      <c r="B217" t="s">
+        <v>663</v>
+      </c>
+      <c r="C217">
+        <v>1.61</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Plasmalyte', '1.61'],</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>603</v>
+      </c>
+      <c r="B218" t="s">
+        <v>664</v>
+      </c>
+      <c r="C218">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Atropine', '2.07'],</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>603</v>
+      </c>
+      <c r="B219" t="s">
+        <v>665</v>
+      </c>
+      <c r="C219">
+        <v>3.9</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Buprenex', '3.9'],</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>603</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220">
+        <v>1.5</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Cefazolin', '1.5'],</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>603</v>
+      </c>
+      <c r="B221" t="s">
+        <v>666</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Ketamine', '1'],</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>603</v>
+      </c>
+      <c r="B222" t="s">
+        <v>667</v>
+      </c>
+      <c r="C222">
+        <v>4.16</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Medetomidine', '4.16'],</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>603</v>
+      </c>
+      <c r="B223" t="s">
+        <v>668</v>
+      </c>
+      <c r="C223">
+        <v>4.26</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Atipamezole', '4.26'],</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>603</v>
+      </c>
+      <c r="B224" t="s">
+        <v>669</v>
+      </c>
+      <c r="C224">
+        <v>8.6</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Manitol iv bag', '8.6'],</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>603</v>
+      </c>
+      <c r="B225" t="s">
+        <v>670</v>
+      </c>
+      <c r="C225">
+        <v>0.16</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Dexamethasone 4mg/kg/cc', '0.16'],</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>603</v>
+      </c>
+      <c r="B226" t="s">
+        <v>555</v>
+      </c>
+      <c r="C226">
+        <v>1.28</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Ketoprofen/cc', '1.28'],</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>603</v>
+      </c>
+      <c r="B227" t="s">
+        <v>671</v>
+      </c>
+      <c r="C227">
+        <v>0.7</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'NaCL 500 m l pour btls', '0.7'],</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>603</v>
+      </c>
+      <c r="B228" t="s">
+        <v>672</v>
+      </c>
+      <c r="C228">
+        <v>0.5</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Sodium Bicarb./cc', '0.5'],</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>603</v>
+      </c>
+      <c r="B229" t="s">
+        <v>673</v>
+      </c>
+      <c r="C229">
+        <v>1.37</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Baytril', '1.37'],</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>603</v>
+      </c>
+      <c r="B230" t="s">
+        <v>530</v>
+      </c>
+      <c r="C230">
+        <v>0.1</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Epinephrine/cc', '0.1'],</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>603</v>
+      </c>
+      <c r="B231" t="s">
+        <v>674</v>
+      </c>
+      <c r="C231">
+        <v>289</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'mesh', '289'],</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>603</v>
+      </c>
+      <c r="B232" t="s">
+        <v>675</v>
+      </c>
+      <c r="C232">
+        <v>3.5</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'cautery ground', '3.5'],</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>603</v>
+      </c>
+      <c r="B233" t="s">
+        <v>676</v>
+      </c>
+      <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Cautery', '4'],</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234" t="s">
+        <v>677</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'bone wax', '7'],</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>603</v>
+      </c>
+      <c r="B235" t="s">
+        <v>678</v>
+      </c>
+      <c r="C235">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'lap sponges', '4.1'],</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>603</v>
+      </c>
+      <c r="B236" t="s">
+        <v>679</v>
+      </c>
+      <c r="C236">
+        <v>6.1</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Surgifoam', '6.1'],</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>603</v>
+      </c>
+      <c r="B237" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237">
+        <v>0.11</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Wypalls', '0.11'],</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>603</v>
+      </c>
+      <c r="B238" t="s">
+        <v>614</v>
+      </c>
+      <c r="C238">
+        <v>0.09</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Chux Pad', '0.09'],</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>603</v>
+      </c>
+      <c r="B239" t="s">
+        <v>681</v>
+      </c>
+      <c r="C239">
+        <v>0.1</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'isooflorane/hr', '0.1'],</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>603</v>
+      </c>
+      <c r="B240" t="s">
+        <v>682</v>
+      </c>
+      <c r="C240">
+        <v>0.01</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Alcohol Swab', '0.01'],</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>603</v>
+      </c>
+      <c r="B241" t="s">
+        <v>683</v>
+      </c>
+      <c r="C241">
+        <v>0.01</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', '3x3 gauze', '0.01'],</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>603</v>
+      </c>
+      <c r="B242" t="s">
+        <v>607</v>
+      </c>
+      <c r="C242">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Biopsy skin punch', '4.4'],</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>603</v>
+      </c>
+      <c r="B243" t="s">
+        <v>684</v>
+      </c>
+      <c r="C243">
+        <v>1.41</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'surgeons gloves', '1.41'],</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>603</v>
+      </c>
+      <c r="B244" t="s">
+        <v>685</v>
+      </c>
+      <c r="C244">
+        <v>6.6</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Steri drape', '6.6'],</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>603</v>
+      </c>
+      <c r="B245" t="s">
+        <v>686</v>
+      </c>
+      <c r="C245">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'paper drape', '8.97'],</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>603</v>
+      </c>
+      <c r="B246" t="s">
+        <v>687</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'suture', '3'],</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>603</v>
+      </c>
+      <c r="B247" t="s">
+        <v>688</v>
+      </c>
+      <c r="C247">
+        <v>21.25</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Gerneral Pan', '21.25'],</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>603</v>
+      </c>
+      <c r="B248" t="s">
+        <v>689</v>
+      </c>
+      <c r="C248">
+        <v>21.25</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Nuero Pan', '21.25'],</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>603</v>
+      </c>
+      <c r="B249" t="s">
+        <v>606</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Biopsy Pack', '5'],</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>603</v>
+      </c>
+      <c r="B250" t="s">
+        <v>690</v>
+      </c>
+      <c r="C250">
+        <v>21.25</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Lap pack', '21.25'],</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>603</v>
+      </c>
+      <c r="B251" t="s">
+        <v>691</v>
+      </c>
+      <c r="C251">
+        <v>21.25</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Steam instrument pan', '21.25'],</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>603</v>
+      </c>
+      <c r="B252" t="s">
+        <v>692</v>
+      </c>
+      <c r="C252">
+        <v>23.75</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Gas intstrument pan', '23.75'],</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>603</v>
+      </c>
+      <c r="B253" t="s">
+        <v>693</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Steam peel pack', '3'],</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>603</v>
+      </c>
+      <c r="B254" t="s">
+        <v>694</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Gas peel pack', '4'],</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>603</v>
+      </c>
+      <c r="B255" t="s">
+        <v>695</v>
+      </c>
+      <c r="C255">
+        <v>15</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Anes fee', '15'],</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>603</v>
+      </c>
+      <c r="B256" t="s">
+        <v>696</v>
+      </c>
+      <c r="C256">
+        <v>23.5</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'Lap scope', '23.5'],</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>603</v>
+      </c>
+      <c r="B257" t="s">
+        <v>697</v>
+      </c>
+      <c r="C257">
+        <v>20</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>['Supplies', 'OR fee pr hr', '20'],</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>698</v>
+      </c>
+      <c r="B258" t="s">
+        <v>709</v>
+      </c>
+      <c r="C258">
+        <v>7.3</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>['EQUIPMENT USE FEES', 'Chair \'use\' Fee', '7.3'],</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>698</v>
+      </c>
+      <c r="B259" t="s">
+        <v>710</v>
+      </c>
+      <c r="C259">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D271" si="4">CONCATENATE("['",A259,"', '",B259,"', '",C259,"'],")</f>
+        <v>['EQUIPMENT USE FEES', 'Electroejac. Machine \'use\' fee', '2.3'],</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>698</v>
+      </c>
+      <c r="B260" t="s">
+        <v>711</v>
+      </c>
+      <c r="C260">
+        <v>0.8</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'Gavage Box \'use\' Fee', '0.8'],</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>698</v>
+      </c>
+      <c r="B261" t="s">
+        <v>699</v>
+      </c>
+      <c r="C261">
+        <v>50</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'OR Fee', '50'],</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>698</v>
+      </c>
+      <c r="B262" t="s">
+        <v>700</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'Pulse Ox monitoring', '10'],</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>698</v>
+      </c>
+      <c r="B263" t="s">
+        <v>701</v>
+      </c>
+      <c r="C263">
+        <v>5.5</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'Sterilization fee- Peel Pack Gas', '5.5'],</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>698</v>
+      </c>
+      <c r="B264" t="s">
+        <v>702</v>
+      </c>
+      <c r="C264">
+        <v>4.5</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'Sterilization fee- Peel Pack Steam', '4.5'],</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>698</v>
+      </c>
+      <c r="B265" t="s">
+        <v>712</v>
+      </c>
+      <c r="C265">
+        <v>14.63</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>['EQUIPMENT USE FEES', 'Ultrasound \'use\' Fee', '14.63'],</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>444</v>
+      </c>
+      <c r="B266" t="s">
+        <v>703</v>
+      </c>
+      <c r="C266">
+        <v>0.06</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'gloves', '0.06'],</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>444</v>
+      </c>
+      <c r="B267" t="s">
+        <v>704</v>
+      </c>
+      <c r="C267">
+        <v>0.26</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'shoe covers', '0.26'],</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>444</v>
+      </c>
+      <c r="B268" t="s">
+        <v>705</v>
+      </c>
+      <c r="C268">
+        <v>0.13</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'masks', '0.13'],</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>444</v>
+      </c>
+      <c r="B269" t="s">
+        <v>706</v>
+      </c>
+      <c r="C269">
+        <v>1.37</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'face shields', '1.37'],</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>444</v>
+      </c>
+      <c r="B270" t="s">
+        <v>707</v>
+      </c>
+      <c r="C270">
+        <v>0.12</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'Boundary Surgeons Caps', '0.12'],</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>444</v>
+      </c>
+      <c r="B271" t="s">
+        <v>654</v>
+      </c>
+      <c r="C271">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>['PPE', 'Tyvek suits', '4.6'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("('",A2,"', '",B2,"'),")</f>
+        <v>('blood', ''),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C38" si="0">CONCATENATE("('",A3,"', '",B3,"'),")</f>
+        <v>('both eyes', ''),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>('breast milk', ''),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>('buccal', ''),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>('buccal swab', ''),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>('bvirus', ''),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>('cells', ''),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>('chopped dispersed tissue', ''),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>('chopped dispersed tissue swab', ''),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>('eye', ''),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>('eyes', ''),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>('feces', ''),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>('genital', ''),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>('genital swab', ''),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>('hbv', ''),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>('hep blood', ''),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>('l. eye', ''),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>('l. eye swab', ''),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>('lesion', ''),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>('lymph node', ''),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>('r. eye', ''),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>('r. eye swab', ''),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>('Rectal', ''),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>('Rectal Swab', ''),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>('semen', ''),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>('serum', ''),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>('siv', ''),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>('spleen', ''),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>('srv', ''),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>('stlv-1', ''),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>('stool', ''),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>('swab buccal', ''),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>('swab genital', ''),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>('tissue', ''),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>('whole blood', ''),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>('whole tissue', ''),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>('whole tissue swab', ''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8297,7 +12832,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10480,9 +15015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1516" sqref="E1516:E1533"/>
+      <selection pane="bottomLeft" activeCell="E1516" sqref="E1516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29540,6 +34075,737 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE(A1,",",B1,",",C1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1,",",L1)</f>
+        <v>role,qcStateLabel,permission,insert,update,del,readOwn,updateOwn,deleteOwn,all</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("['",A2,"' ,'",B2,"' ,'",C2,"' ,'",E2,"' ,'",F2,"', '",G2,"', '",H2,"', '",I2,"', '",J2,"', '",K2,"'],")</f>
+        <v>['Data Admin' ,'Approved' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE("['",A3,"' ,'",B3,"' ,'",C3,"' ,'",E3,"' ,'",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"', '",K3,"'],")</f>
+        <v>['Data Admin' ,'In Progress' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE("['",A4,"' ,'",B4,"' ,'",C4,"' ,'",E4,"' ,'",F4,"', '",G4,"', '",H4,"', '",I4,"', '",J4,"', '",K4,"'],")</f>
+        <v>['Data Admin' ,'Abnormal' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE("['",A5,"' ,'",B5,"' ,'",C5,"' ,'",E5,"' ,'",F5,"', '",G5,"', '",H5,"', '",I5,"', '",J5,"', '",K5,"'],")</f>
+        <v>['Data Admin' ,'Review Required' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M6" t="str">
+        <f>CONCATENATE("['",A6,"' ,'",B6,"' ,'",C6,"' ,'",E6,"' ,'",F6,"', '",G6,"', '",H6,"', '",I6,"', '",J6,"', '",K6,"'],")</f>
+        <v>['Data Admin' ,'Request: Pending' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE("['",A7,"' ,'",B7,"' ,'",C7,"' ,'",E7,"' ,'",F7,"', '",G7,"', '",H7,"', '",I7,"', '",J7,"', '",K7,"'],")</f>
+        <v>['Data Admin' ,'Delete Requested' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M8" t="str">
+        <f>CONCATENATE("['",A8,"' ,'",B8,"' ,'",C8,"' ,'",E8,"' ,'",F8,"', '",G8,"', '",H8,"', '",I8,"', '",J8,"', '",K8,"'],")</f>
+        <v>['Data Admin' ,'Deleted' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M9" t="str">
+        <f>CONCATENATE("['",A9,"' ,'",B9,"' ,'",C9,"' ,'",E9,"' ,'",F9,"', '",G9,"', '",H9,"', '",I9,"', '",J9,"', '",K9,"'],")</f>
+        <v>['Data Admin' ,'Request: Denied' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M10" t="str">
+        <f>CONCATENATE("['",A10,"' ,'",B10,"' ,'",C10,"' ,'",E10,"' ,'",F10,"', '",G10,"', '",H10,"', '",I10,"', '",J10,"', '",K10,"'],")</f>
+        <v>['Data Admin' ,'Request: Approved' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M11" t="str">
+        <f>CONCATENATE("['",A11,"' ,'",B11,"' ,'",C11,"' ,'",E11,"' ,'",F11,"', '",G11,"', '",H11,"', '",I11,"', '",J11,"', '",K11,"'],")</f>
+        <v>['Data Admin' ,'Request: Complete' ,'all' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M12" t="str">
+        <f>CONCATENATE("['",A12,"' ,'",B12,"' ,'",C12,"' ,'",E12,"' ,'",F12,"', '",G12,"', '",H12,"', '",I12,"', '",J12,"', '",K12,"'],")</f>
+        <v>['Requestor' ,'Approved' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M13" t="str">
+        <f>CONCATENATE("['",A13,"' ,'",B13,"' ,'",C13,"' ,'",E13,"' ,'",F13,"', '",G13,"', '",H13,"', '",I13,"', '",J13,"', '",K13,"'],")</f>
+        <v>['Requestor' ,'In Progress' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M14" t="str">
+        <f>CONCATENATE("['",A14,"' ,'",B14,"' ,'",C14,"' ,'",E14,"' ,'",F14,"', '",G14,"', '",H14,"', '",I14,"', '",J14,"', '",K14,"'],")</f>
+        <v>['Requestor' ,'Abnormal' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M15" t="str">
+        <f>CONCATENATE("['",A15,"' ,'",B15,"' ,'",C15,"' ,'",E15,"' ,'",F15,"', '",G15,"', '",H15,"', '",I15,"', '",J15,"', '",K15,"'],")</f>
+        <v>['Requestor' ,'Review Required' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="str">
+        <f>CONCATENATE("['",A16,"' ,'",B16,"' ,'",C16,"' ,'",E16,"' ,'",F16,"', '",G16,"', '",H16,"', '",I16,"', '",J16,"', '",K16,"'],")</f>
+        <v>['Requestor' ,'Request: Pending' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="str">
+        <f>CONCATENATE("['",A17,"' ,'",B17,"' ,'",C17,"' ,'",E17,"' ,'",F17,"', '",G17,"', '",H17,"', '",I17,"', '",J17,"', '",K17,"'],")</f>
+        <v>['Requestor' ,'Delete Requested' ,'' ,'' ,'', '', '', '', 'TRUE', ''],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M18" t="str">
+        <f>CONCATENATE("['",A18,"' ,'",B18,"' ,'",C18,"' ,'",E18,"' ,'",F18,"', '",G18,"', '",H18,"', '",I18,"', '",J18,"', '",K18,"'],")</f>
+        <v>['Requestor' ,'Deleted' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="str">
+        <f>CONCATENATE("['",A19,"' ,'",B19,"' ,'",C19,"' ,'",E19,"' ,'",F19,"', '",G19,"', '",H19,"', '",I19,"', '",J19,"', '",K19,"'],")</f>
+        <v>['Requestor' ,'Request: Denied' ,'' ,'' ,'', '', '', 'TRUE', 'TRUE', ''],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="str">
+        <f>CONCATENATE("['",A20,"' ,'",B20,"' ,'",C20,"' ,'",E20,"' ,'",F20,"', '",G20,"', '",H20,"', '",I20,"', '",J20,"', '",K20,"'],")</f>
+        <v>['Requestor' ,'Request: Approved' ,'' ,'' ,'', '', '', '', 'TRUE', ''],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>CONCATENATE("['",A21,"' ,'",B21,"' ,'",C21,"' ,'",E21,"' ,'",F21,"', '",G21,"', '",H21,"', '",I21,"', '",J21,"', '",K21,"'],")</f>
+        <v>['Requestor' ,'Request: Complete' ,'' ,'' ,'', '', '', '', 'TRUE', ''],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1693</v>
+      </c>
+      <c r="M22" t="str">
+        <f>CONCATENATE("['",A22,"' ,'",B22,"' ,'",C22,"' ,'",E22,"' ,'",F22,"', '",G22,"', '",H22,"', '",I22,"', '",J22,"', '",K22,"'],")</f>
+        <v>['Submitter' ,'Approved' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1694</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="str">
+        <f>CONCATENATE("['",A23,"' ,'",B23,"' ,'",C23,"' ,'",E23,"' ,'",F23,"', '",G23,"', '",H23,"', '",I23,"', '",J23,"', '",K23,"'],")</f>
+        <v>['Submitter' ,'In Progress' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="str">
+        <f>CONCATENATE("['",A24,"' ,'",B24,"' ,'",C24,"' ,'",E24,"' ,'",F24,"', '",G24,"', '",H24,"', '",I24,"', '",J24,"', '",K24,"'],")</f>
+        <v>['Submitter' ,'Abnormal' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="str">
+        <f>CONCATENATE("['",A25,"' ,'",B25,"' ,'",C25,"' ,'",E25,"' ,'",F25,"', '",G25,"', '",H25,"', '",I25,"', '",J25,"', '",K25,"'],")</f>
+        <v>['Submitter' ,'Review Required' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="str">
+        <f>CONCATENATE("['",A26,"' ,'",B26,"' ,'",C26,"' ,'",E26,"' ,'",F26,"', '",G26,"', '",H26,"', '",I26,"', '",J26,"', '",K26,"'],")</f>
+        <v>['Submitter' ,'Request: Pending' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1698</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f>CONCATENATE("['",A27,"' ,'",B27,"' ,'",C27,"' ,'",E27,"' ,'",F27,"', '",G27,"', '",H27,"', '",I27,"', '",J27,"', '",K27,"'],")</f>
+        <v>['Submitter' ,'Delete Requested' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <f>CONCATENATE("['",A28,"' ,'",B28,"' ,'",C28,"' ,'",E28,"' ,'",F28,"', '",G28,"', '",H28,"', '",I28,"', '",J28,"', '",K28,"'],")</f>
+        <v>['Submitter' ,'Deleted' ,'x' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="str">
+        <f>CONCATENATE("['",A29,"' ,'",B29,"' ,'",C29,"' ,'",E29,"' ,'",F29,"', '",G29,"', '",H29,"', '",I29,"', '",J29,"', '",K29,"'],")</f>
+        <v>['Submitter' ,'Request: Denied' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="str">
+        <f>CONCATENATE("['",A30,"' ,'",B30,"' ,'",C30,"' ,'",E30,"' ,'",F30,"', '",G30,"', '",H30,"', '",I30,"', '",J30,"', '",K30,"'],")</f>
+        <v>['Submitter' ,'Request: Approved' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="str">
+        <f>CONCATENATE("['",A31,"' ,'",B31,"' ,'",C31,"' ,'",E31,"' ,'",F31,"', '",G31,"', '",H31,"', '",I31,"', '",J31,"', '",K31,"'],")</f>
+        <v>['Submitter' ,'Request: Complete' ,'' ,'' ,'', '', '', '', '', ''],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("('",A2,"', ",B2,", ",C2,", ",D2,"),")</f>
+        <v>('Approved', FALSE, FALSE, FALSE),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E11" si="0">CONCATENATE("('",A3,"', ",B3,", ",C3,", ",D3,"),")</f>
+        <v>('In Progress', TRUE, FALSE, FALSE),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>('Abnormal', FALSE, FALSE, FALSE),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>('Review Required', FALSE, FALSE, FALSE),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>('Request: Pending', FALSE, FALSE, TRUE),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>('Delete Requested', TRUE, FALSE, FALSE),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>('Deleted', FALSE, TRUE, FALSE),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>('Request: Denied', FALSE, FALSE, TRUE),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>('Request: Approved', TRUE, FALSE, TRUE),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>('Request: Complete', FALSE, FALSE, TRUE),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -30299,4450 +35565,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D271"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2">
-        <v>2.41</v>
-      </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE("['",A2,"', '",B2,"', '",C2,"'],")</f>
-        <v>['PPE', 'Standard (gloves, mask, booties, hair, face, shield) per person', '2.41'],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3">
-        <v>7.53</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE("['",A3,"', '",B3,"', '",C3,"'],")</f>
-        <v>['PPE', 'SIV Area (gloves, mask, booties, Bouffants, face, shield, tyvek suit) per person', '7.53'],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4">
-        <v>9.65</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>['PPE', 'Quarantine or SIV infection (gloves, N 95 mask, booties, hair, face, shield, tyvek suit) per person', '9.65'],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Tech 1 time per hour', '45'],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6">
-        <v>45</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Tech 2 time per hour', '45'],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Tech time (Gene Exp. Assay)', '45'],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8">
-        <v>45</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Tech time (Blood Process.)', '45'],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Vet tech time per hour', '75'],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10">
-        <v>85</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Surgery tech time per hour', '85'],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11">
-        <v>160</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Vet time per hour', '160'],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C12">
-        <v>36.67</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'After hours treatment', '36.67'],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" t="s">
-        <v>457</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Anesthesia fee', '15'],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14">
-        <v>37.72</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Care staff time per hour', '37.72'],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B15" t="s">
-        <v>459</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Emergency fee', '50'],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B16" t="s">
-        <v>460</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Medication fee/dose', '5'],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>448</v>
-      </c>
-      <c r="B17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'Post-op monitoring fee/day', '8'],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>448</v>
-      </c>
-      <c r="B18" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'OR fee/hr', '20'],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>['Labor ', 'AFTER HOURS CARE FEE', '50'],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>464</v>
-      </c>
-      <c r="B20" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20">
-        <v>170.42</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Biopsy', '170.42'],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'CBC', '20'],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>464</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Chemistry', '34'],</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Cytology of FNA', '18'],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>464</v>
-      </c>
-      <c r="B24" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24">
-        <v>21.5</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Cytospin (for cytology)', '21.5'],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>464</v>
-      </c>
-      <c r="B25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C25">
-        <v>42</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'EIA', '42'],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B26" t="s">
-        <v>469</v>
-      </c>
-      <c r="C26">
-        <v>40</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, bronchial', '40'],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>464</v>
-      </c>
-      <c r="B27" t="s">
-        <v>470</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, environmental', '19'],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>464</v>
-      </c>
-      <c r="B28" t="s">
-        <v>471</v>
-      </c>
-      <c r="C28">
-        <v>105</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, fecal', '105'],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>464</v>
-      </c>
-      <c r="B29" t="s">
-        <v>472</v>
-      </c>
-      <c r="C29">
-        <v>50.1</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, fungal', '50.1'],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>464</v>
-      </c>
-      <c r="B30" t="s">
-        <v>473</v>
-      </c>
-      <c r="C30">
-        <v>37.1</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, genital', '37.1'],</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C31">
-        <v>60</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, headcap swab', '60'],</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>464</v>
-      </c>
-      <c r="B32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C32">
-        <v>23.5</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, nasal', '23.5'],</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>464</v>
-      </c>
-      <c r="B33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C33">
-        <v>60</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, organ', '60'],</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>464</v>
-      </c>
-      <c r="B34" t="s">
-        <v>477</v>
-      </c>
-      <c r="C34">
-        <v>44</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, superficial', '44'],</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>464</v>
-      </c>
-      <c r="B35" t="s">
-        <v>478</v>
-      </c>
-      <c r="C35">
-        <v>60</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, tissue', '60'],</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>464</v>
-      </c>
-      <c r="B36" t="s">
-        <v>479</v>
-      </c>
-      <c r="C36">
-        <v>34.5</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Culture, urine', '34.5'],</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>464</v>
-      </c>
-      <c r="B37" t="s">
-        <v>480</v>
-      </c>
-      <c r="C37">
-        <v>37.5</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'O&amp;P concentration', '37.5'],</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>464</v>
-      </c>
-      <c r="B38" t="s">
-        <v>481</v>
-      </c>
-      <c r="C38">
-        <v>28</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'O&amp;P wet prep', '28'],</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>464</v>
-      </c>
-      <c r="B39" t="s">
-        <v>482</v>
-      </c>
-      <c r="C39">
-        <v>33</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Sensitivity', '33'],</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>464</v>
-      </c>
-      <c r="B40" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'STAT charge/animal', '15'],</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>464</v>
-      </c>
-      <c r="B41" t="s">
-        <v>484</v>
-      </c>
-      <c r="C41">
-        <v>18</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>['Clincal Pathology', 'Urinalysis w/microscopic exam', '18'],</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>713</v>
-      </c>
-      <c r="B42" t="s">
-        <v>485</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>['Assays/Analysis', 'Data Analysis', '8'],</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>713</v>
-      </c>
-      <c r="B43" t="s">
-        <v>486</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>['Assays/Analysis', 'Glucose analysis', '5'],</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>713</v>
-      </c>
-      <c r="B44" t="s">
-        <v>487</v>
-      </c>
-      <c r="C44">
-        <v>7.11</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>['Assays/Analysis', 'Glucagon assay', '7.11'],</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>713</v>
-      </c>
-      <c r="B45" t="s">
-        <v>488</v>
-      </c>
-      <c r="C45">
-        <v>10.17</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>['Assays/Analysis', 'Insulin Assay', '10.17'],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>489</v>
-      </c>
-      <c r="B46" t="s">
-        <v>490</v>
-      </c>
-      <c r="C46">
-        <v>22.5</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Shipping - Infectious/dangerous goods', '22.5'],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" t="s">
-        <v>491</v>
-      </c>
-      <c r="C47">
-        <v>50.32</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Infectious box - infecon 5000(0.5L)', '50.32'],</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>489</v>
-      </c>
-      <c r="B48" t="s">
-        <v>492</v>
-      </c>
-      <c r="C48">
-        <v>51.89</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Infectious box - infecon 5500(1L)', '51.89'],</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>489</v>
-      </c>
-      <c r="B49" t="s">
-        <v>493</v>
-      </c>
-      <c r="C49">
-        <v>11.25</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Shipment - Regular', '11.25'],</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>489</v>
-      </c>
-      <c r="B50" t="s">
-        <v>494</v>
-      </c>
-      <c r="C50">
-        <v>7.94</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Shipping Box - insulated (large)', '7.94'],</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>489</v>
-      </c>
-      <c r="B51" t="s">
-        <v>495</v>
-      </c>
-      <c r="C51">
-        <v>6.01</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>['Shipment Fees', 'Shipping Box - insulated (small)', '6.01'],</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>496</v>
-      </c>
-      <c r="B52" t="s">
-        <v>497</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Acetominophen Drops (infant), 30ml/btl', '0'],</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>496</v>
-      </c>
-      <c r="B53" t="s">
-        <v>498</v>
-      </c>
-      <c r="C53">
-        <v>2.29</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Artificial Tears Ointment, 1/8 oz', '2.29'],</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B54" t="s">
-        <v>499</v>
-      </c>
-      <c r="C54">
-        <v>3.19</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Atropine sulfate 1/120g, 100ml btl', '3.19'],</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>496</v>
-      </c>
-      <c r="B55" t="s">
-        <v>500</v>
-      </c>
-      <c r="C55">
-        <v>0.26</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Atropine/ml', '0.26'],</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" t="s">
-        <v>501</v>
-      </c>
-      <c r="C56">
-        <v>0.38</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Azathioprine per tablet', '0.38'],</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C57">
-        <v>0.02</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'B complex/ml', '0.02'],</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" t="s">
-        <v>503</v>
-      </c>
-      <c r="C58">
-        <v>17.55</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Baytril 20ml vial', '17.55'],</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>496</v>
-      </c>
-      <c r="B59" t="s">
-        <v>504</v>
-      </c>
-      <c r="C59">
-        <v>0.1</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Benedryl/caplet', '0.1'],</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>496</v>
-      </c>
-      <c r="B60" t="s">
-        <v>505</v>
-      </c>
-      <c r="C60">
-        <v>0.37</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Beuthanasia/ml', '0.37'],</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
-      <c r="B61" t="s">
-        <v>506</v>
-      </c>
-      <c r="C61">
-        <v>4.28</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Buprenorphine/ml', '4.28'],</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" t="s">
-        <v>507</v>
-      </c>
-      <c r="C62">
-        <v>1.62</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Carprofen (injectable/ml)', '1.62'],</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>496</v>
-      </c>
-      <c r="B63" t="s">
-        <v>508</v>
-      </c>
-      <c r="C63">
-        <v>0.23</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Carprofen (oral/tablet)', '0.23'],</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>496</v>
-      </c>
-      <c r="B64" t="s">
-        <v>509</v>
-      </c>
-      <c r="C64">
-        <v>1.86</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Cefazolin/vial', '1.86'],</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>496</v>
-      </c>
-      <c r="B65" t="s">
-        <v>510</v>
-      </c>
-      <c r="C65">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Cephalexin--100 ml bottle', '18.9'],</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>496</v>
-      </c>
-      <c r="B66" t="s">
-        <v>511</v>
-      </c>
-      <c r="C66">
-        <v>0.19</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>['DRUGS', 'Cephalexin/ml (100 ml bottle)', '0.19'],</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>496</v>
-      </c>
-      <c r="B67" t="s">
-        <v>512</v>
-      </c>
-      <c r="C67">
-        <v>0.16</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">CONCATENATE("['",A67,"', '",B67,"', '",C67,"'],")</f>
-        <v>['DRUGS', 'Cephalexin/ml (200 ml bottle)', '0.16'],</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>496</v>
-      </c>
-      <c r="B68" t="s">
-        <v>513</v>
-      </c>
-      <c r="C68">
-        <v>31.5</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Cephalexin/ml--200 ml bottle', '31.5'],</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>496</v>
-      </c>
-      <c r="B69" t="s">
-        <v>514</v>
-      </c>
-      <c r="C69">
-        <v>0.2</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Cetacaine spray, 56g/use', '0.2'],</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>496</v>
-      </c>
-      <c r="B70" t="s">
-        <v>515</v>
-      </c>
-      <c r="C70">
-        <v>0.34</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Cimetidine/ml', '0.34'],</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>496</v>
-      </c>
-      <c r="B71" t="s">
-        <v>516</v>
-      </c>
-      <c r="C71">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Cisapride/200 ml bottle', '32.45'],</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" t="s">
-        <v>517</v>
-      </c>
-      <c r="C72">
-        <v>0.16</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Cisapride/ml', '0.16'],</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" t="s">
-        <v>518</v>
-      </c>
-      <c r="C73">
-        <v>9.48</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Clomipramine/bottle', '9.48'],</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>496</v>
-      </c>
-      <c r="B74" t="s">
-        <v>519</v>
-      </c>
-      <c r="C74">
-        <v>59.23</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Depo Injection - 1ml  injection', '59.23'],</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>496</v>
-      </c>
-      <c r="B75" t="s">
-        <v>520</v>
-      </c>
-      <c r="C75">
-        <v>70.5</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Depo-provera/syringe', '70.5'],</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B76" t="s">
-        <v>521</v>
-      </c>
-      <c r="C76">
-        <v>0.19</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Dexamethasone/ml', '0.19'],</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" t="s">
-        <v>522</v>
-      </c>
-      <c r="C77">
-        <v>6.15</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Dexdomitor per dose', '6.15'],</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>496</v>
-      </c>
-      <c r="B78" t="s">
-        <v>523</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Dextrose Injectible, 50%; 50ml/vl', '4'],</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>496</v>
-      </c>
-      <c r="B79" t="s">
-        <v>524</v>
-      </c>
-      <c r="C79">
-        <v>0.24</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Diazepam/ml', '0.24'],</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" t="s">
-        <v>525</v>
-      </c>
-      <c r="C80">
-        <v>12.05</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Diphenhydramine HCL inj/use', '12.05'],</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>496</v>
-      </c>
-      <c r="B81" t="s">
-        <v>526</v>
-      </c>
-      <c r="C81">
-        <v>0.1</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Diphenhydramine/tab', '0.1'],</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>496</v>
-      </c>
-      <c r="B82" t="s">
-        <v>527</v>
-      </c>
-      <c r="C82">
-        <v>1.21</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Diphenhydramine/vial', '1.21'],</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" t="s">
-        <v>528</v>
-      </c>
-      <c r="C83">
-        <v>0.59</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Enalapril Maleate per tablet', '0.59'],</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>496</v>
-      </c>
-      <c r="B84" t="s">
-        <v>529</v>
-      </c>
-      <c r="C84">
-        <v>0.88</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Enrofloxacin/ml', '0.88'],</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>496</v>
-      </c>
-      <c r="B85" t="s">
-        <v>530</v>
-      </c>
-      <c r="C85">
-        <v>0.1</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Epinephrine/cc', '0.1'],</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>496</v>
-      </c>
-      <c r="B86" t="s">
-        <v>531</v>
-      </c>
-      <c r="C86">
-        <v>0.1</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Epinephrine/ml', '0.1'],</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>496</v>
-      </c>
-      <c r="B87" t="s">
-        <v>532</v>
-      </c>
-      <c r="C87">
-        <v>1.45</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Estrumate/ml', '1.45'],</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>496</v>
-      </c>
-      <c r="B88" t="s">
-        <v>533</v>
-      </c>
-      <c r="C88">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fiber bites', '0.07'],</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>496</v>
-      </c>
-      <c r="B89" t="s">
-        <v>534</v>
-      </c>
-      <c r="C89">
-        <v>0.11</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fiber laxitive per tablet', '0.11'],</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>496</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
-      </c>
-      <c r="C90">
-        <v>0.08</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fish Oil/capsule', '0.08'],</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>496</v>
-      </c>
-      <c r="B91" t="s">
-        <v>536</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fluid bag', '2'],</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>496</v>
-      </c>
-      <c r="B92" t="s">
-        <v>537</v>
-      </c>
-      <c r="C92">
-        <v>0.16</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Flunixin Mcglumine per ml', '0.16'],</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>496</v>
-      </c>
-      <c r="B93" t="s">
-        <v>538</v>
-      </c>
-      <c r="C93">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fluoxetine/bottle', '39.95'],</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" t="s">
-        <v>539</v>
-      </c>
-      <c r="C94">
-        <v>0.4</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Fluoxetine/capsule', '0.4'],</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>496</v>
-      </c>
-      <c r="B95" t="s">
-        <v>540</v>
-      </c>
-      <c r="C95">
-        <v>0.23</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Furosamide/ml', '0.23'],</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>496</v>
-      </c>
-      <c r="B96" t="s">
-        <v>541</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Gabapentin per bottle', '8'],</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>496</v>
-      </c>
-      <c r="B97" t="s">
-        <v>542</v>
-      </c>
-      <c r="C97">
-        <v>0.08</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Gabapentin per tablet', '0.08'],</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>496</v>
-      </c>
-      <c r="B98" t="s">
-        <v>543</v>
-      </c>
-      <c r="C98">
-        <v>0.13</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Glycopyrrolate per ml', '0.13'],</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>496</v>
-      </c>
-      <c r="B99" t="s">
-        <v>544</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'GoLytely, GI Lavage, 1gal', '0'],</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>496</v>
-      </c>
-      <c r="B100" t="s">
-        <v>545</v>
-      </c>
-      <c r="C100">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Hep Saline', '0.58'],</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>496</v>
-      </c>
-      <c r="B101" t="s">
-        <v>546</v>
-      </c>
-      <c r="C101">
-        <v>0.76</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Heparin/bottle', '0.76'],</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>496</v>
-      </c>
-      <c r="B102" t="s">
-        <v>547</v>
-      </c>
-      <c r="C102">
-        <v>0.08</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Heparin/ml', '0.08'],</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>496</v>
-      </c>
-      <c r="B103" t="s">
-        <v>548</v>
-      </c>
-      <c r="C103">
-        <v>3.46</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Insulin (Humulin-N)/ml', '3.46'],</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>496</v>
-      </c>
-      <c r="B104" t="s">
-        <v>549</v>
-      </c>
-      <c r="C104">
-        <v>7.8</v>
-      </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Insulin (Lantis)/ml', '7.8'],</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>496</v>
-      </c>
-      <c r="B105" t="s">
-        <v>550</v>
-      </c>
-      <c r="C105">
-        <v>0.03</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Iron/ml', '0.03'],</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" t="s">
-        <v>551</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Isoflorane/hr', '1'],</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>496</v>
-      </c>
-      <c r="B107" t="s">
-        <v>552</v>
-      </c>
-      <c r="C107">
-        <v>0.46</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Ivermectin (injectible)', '0.46'],</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>496</v>
-      </c>
-      <c r="B108" t="s">
-        <v>553</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Ketamine dose', '1'],</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>496</v>
-      </c>
-      <c r="B109" t="s">
-        <v>554</v>
-      </c>
-      <c r="C109">
-        <v>13.38</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Ketoconazole/bottle', '13.38'],</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>496</v>
-      </c>
-      <c r="B110" t="s">
-        <v>555</v>
-      </c>
-      <c r="C110">
-        <v>1.28</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Ketoprofen/cc', '1.28'],</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>496</v>
-      </c>
-      <c r="B111" t="s">
-        <v>556</v>
-      </c>
-      <c r="C111">
-        <v>1.44</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Ketoprofen/ml', '1.44'],</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>496</v>
-      </c>
-      <c r="B112" t="s">
-        <v>557</v>
-      </c>
-      <c r="C112">
-        <v>6.33</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Lidocaine 250ml bottle', '6.33'],</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>496</v>
-      </c>
-      <c r="B113" t="s">
-        <v>558</v>
-      </c>
-      <c r="C113">
-        <v>0.02</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Lidocaine/ml', '0.02'],</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>496</v>
-      </c>
-      <c r="B114" t="s">
-        <v>559</v>
-      </c>
-      <c r="C114">
-        <v>0.47</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Loperamide/tablet', '0.47'],</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>496</v>
-      </c>
-      <c r="B115" t="s">
-        <v>560</v>
-      </c>
-      <c r="C115">
-        <v>1.61</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'LRS/bag', '1.61'],</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>496</v>
-      </c>
-      <c r="B116" t="s">
-        <v>561</v>
-      </c>
-      <c r="C116">
-        <v>121.54</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Mamalian tuberculin/10 ml vial', '121.54'],</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>496</v>
-      </c>
-      <c r="B117" t="s">
-        <v>562</v>
-      </c>
-      <c r="C117">
-        <v>3.3</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Medetomidine per dose', '3.3'],</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>496</v>
-      </c>
-      <c r="B118" t="s">
-        <v>563</v>
-      </c>
-      <c r="C118">
-        <v>86.9</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Meloxicam per bottle', '86.9'],</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>496</v>
-      </c>
-      <c r="B119" t="s">
-        <v>564</v>
-      </c>
-      <c r="C119">
-        <v>6.81</v>
-      </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Meloxicam per ml (injectable)', '6.81'],</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>496</v>
-      </c>
-      <c r="B120" t="s">
-        <v>565</v>
-      </c>
-      <c r="C120">
-        <v>0.48</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Meloxicam per ml (oral)', '0.48'],</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>496</v>
-      </c>
-      <c r="B121" t="s">
-        <v>566</v>
-      </c>
-      <c r="C121">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Metoclopramide/ml', '0.28'],</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>496</v>
-      </c>
-      <c r="B122" t="s">
-        <v>567</v>
-      </c>
-      <c r="C122">
-        <v>0.22</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Metronidazole/ml', '0.22'],</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>496</v>
-      </c>
-      <c r="B123" t="s">
-        <v>568</v>
-      </c>
-      <c r="C123">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Midazolam/bottle', '9.95'],</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>496</v>
-      </c>
-      <c r="B124" t="s">
-        <v>569</v>
-      </c>
-      <c r="C124">
-        <v>7.29</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Midazolam/ml', '7.29'],</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>496</v>
-      </c>
-      <c r="B125" t="s">
-        <v>570</v>
-      </c>
-      <c r="C125">
-        <v>0.22</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Multivitamins/pill', '0.22'],</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>496</v>
-      </c>
-      <c r="B126" t="s">
-        <v>571</v>
-      </c>
-      <c r="C126">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'NaCL  0.9% - 250ml bag', '0.56'],</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>496</v>
-      </c>
-      <c r="B127" t="s">
-        <v>572</v>
-      </c>
-      <c r="C127">
-        <v>0.82</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'NaCL 0.9% - 1000ml bag', '0.82'],</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>496</v>
-      </c>
-      <c r="B128" t="s">
-        <v>573</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'NaCL 0.9% - 30ml btl', '0'],</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>496</v>
-      </c>
-      <c r="B129" t="s">
-        <v>574</v>
-      </c>
-      <c r="C129">
-        <v>0.16</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Nexaband liquid/use', '0.16'],</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" t="s">
-        <v>575</v>
-      </c>
-      <c r="C130">
-        <v>0.04</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
-        <v>['DRUGS', 'Oxytocin/ml', '0.04'],</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>496</v>
-      </c>
-      <c r="B131" t="s">
-        <v>576</v>
-      </c>
-      <c r="C131">
-        <v>0.09</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">CONCATENATE("['",A131,"', '",B131,"', '",C131,"'],")</f>
-        <v>['DRUGS', 'Panacur (fenbendazole) per ml', '0.09'],</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>496</v>
-      </c>
-      <c r="B132" t="s">
-        <v>577</v>
-      </c>
-      <c r="C132">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Pancreazyne per teaspoon', '1.14'],</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>496</v>
-      </c>
-      <c r="B133" t="s">
-        <v>578</v>
-      </c>
-      <c r="C133">
-        <v>0.06</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Penicillin/ml', '0.06'],</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>496</v>
-      </c>
-      <c r="B134" t="s">
-        <v>579</v>
-      </c>
-      <c r="C134">
-        <v>0.44</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Pepto Bismuth/oz.', '0.44'],</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>496</v>
-      </c>
-      <c r="B135" t="s">
-        <v>580</v>
-      </c>
-      <c r="C135">
-        <v>5.01</v>
-      </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Pioglitazone/15mg tablet', '5.01'],</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>496</v>
-      </c>
-      <c r="B136" t="s">
-        <v>581</v>
-      </c>
-      <c r="C136">
-        <v>8.31</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Pioglitazone/45mg tablet', '8.31'],</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>496</v>
-      </c>
-      <c r="B137" t="s">
-        <v>582</v>
-      </c>
-      <c r="C137">
-        <v>1.87</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Plasmalyte/bag', '1.87'],</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>496</v>
-      </c>
-      <c r="B138" t="s">
-        <v>583</v>
-      </c>
-      <c r="C138">
-        <v>3.05</v>
-      </c>
-      <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Plasmalyte/bag--vet school', '3.05'],</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>496</v>
-      </c>
-      <c r="B139" t="s">
-        <v>584</v>
-      </c>
-      <c r="C139">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Potassium Chloride/vial', '1.1'],</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>496</v>
-      </c>
-      <c r="B140" t="s">
-        <v>585</v>
-      </c>
-      <c r="C140">
-        <v>12.19</v>
-      </c>
-      <c r="D140" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Praziquantel (3 doses)', '12.19'],</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>496</v>
-      </c>
-      <c r="B141" t="s">
-        <v>586</v>
-      </c>
-      <c r="C141">
-        <v>17.5</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Prednisone/bottle', '17.5'],</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>496</v>
-      </c>
-      <c r="B142" t="s">
-        <v>587</v>
-      </c>
-      <c r="C142">
-        <v>0.02</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Prednisone/tablet', '0.02'],</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>496</v>
-      </c>
-      <c r="B143" t="s">
-        <v>588</v>
-      </c>
-      <c r="C143">
-        <v>0.5</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Sodium bicarb/ml', '0.5'],</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>496</v>
-      </c>
-      <c r="B144" t="s">
-        <v>589</v>
-      </c>
-      <c r="C144">
-        <v>38.79</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Telazol/bottle', '38.79'],</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>496</v>
-      </c>
-      <c r="B145" t="s">
-        <v>590</v>
-      </c>
-      <c r="C145">
-        <v>0.25</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Tetracycline/ml', '0.25'],</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>496</v>
-      </c>
-      <c r="B146" t="s">
-        <v>591</v>
-      </c>
-      <c r="C146">
-        <v>0.54</v>
-      </c>
-      <c r="D146" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'TMS/ml (injectible)', '0.54'],</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>496</v>
-      </c>
-      <c r="B147" t="s">
-        <v>592</v>
-      </c>
-      <c r="C147">
-        <v>0.03</v>
-      </c>
-      <c r="D147" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'TMS/ml (oral)', '0.03'],</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>496</v>
-      </c>
-      <c r="B148" t="s">
-        <v>593</v>
-      </c>
-      <c r="C148">
-        <v>0.27</v>
-      </c>
-      <c r="D148" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'TMS/tablet', '0.27'],</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>496</v>
-      </c>
-      <c r="B149" t="s">
-        <v>594</v>
-      </c>
-      <c r="C149">
-        <v>0.26</v>
-      </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Tylenol/ml', '0.26'],</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>496</v>
-      </c>
-      <c r="B150" t="s">
-        <v>595</v>
-      </c>
-      <c r="C150">
-        <v>0.08</v>
-      </c>
-      <c r="D150" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Tylenol/tablet', '0.08'],</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>496</v>
-      </c>
-      <c r="B151" t="s">
-        <v>596</v>
-      </c>
-      <c r="C151">
-        <v>45.54</v>
-      </c>
-      <c r="D151" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Tylosin Powder (100g bottle)', '45.54'],</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>496</v>
-      </c>
-      <c r="B152" t="s">
-        <v>597</v>
-      </c>
-      <c r="C152">
-        <v>0.02</v>
-      </c>
-      <c r="D152" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Vitamin C/ml', '0.02'],</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>496</v>
-      </c>
-      <c r="B153" t="s">
-        <v>598</v>
-      </c>
-      <c r="C153">
-        <v>0.11</v>
-      </c>
-      <c r="D153" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Vitamin K/ml', '0.11'],</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>496</v>
-      </c>
-      <c r="B154" t="s">
-        <v>599</v>
-      </c>
-      <c r="C154">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D154" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Xylazine/bottle', '16.4'],</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>496</v>
-      </c>
-      <c r="B155" t="s">
-        <v>600</v>
-      </c>
-      <c r="C155">
-        <v>36</v>
-      </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Yohimbine/bottle', '36'],</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>496</v>
-      </c>
-      <c r="B156" t="s">
-        <v>601</v>
-      </c>
-      <c r="C156">
-        <v>40</v>
-      </c>
-      <c r="D156" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Zithromax/bottle', '40'],</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>496</v>
-      </c>
-      <c r="B157" t="s">
-        <v>602</v>
-      </c>
-      <c r="C157">
-        <v>0.61</v>
-      </c>
-      <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>['DRUGS', 'Zithromax/ml', '0.61'],</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>603</v>
-      </c>
-      <c r="B158" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158">
-        <v>0.01</v>
-      </c>
-      <c r="D158" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Alcohol prep pads', '0.01'],</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>603</v>
-      </c>
-      <c r="B159" t="s">
-        <v>605</v>
-      </c>
-      <c r="C159">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Biohazard bags, 6x10, each', '0.14'],</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>603</v>
-      </c>
-      <c r="B160" t="s">
-        <v>606</v>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-      <c r="D160" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Biopsy Pack', '7'],</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>603</v>
-      </c>
-      <c r="B161" t="s">
-        <v>607</v>
-      </c>
-      <c r="C161">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D161" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Biopsy skin punch', '4.4'],</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>603</v>
-      </c>
-      <c r="B162" t="s">
-        <v>608</v>
-      </c>
-      <c r="C162">
-        <v>0.21</v>
-      </c>
-      <c r="D162" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Biopsy Cassettes', '0.21'],</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>603</v>
-      </c>
-      <c r="B163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C163">
-        <v>0.3</v>
-      </c>
-      <c r="D163" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Biopsy Cassettes - microsette', '0.3'],</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>603</v>
-      </c>
-      <c r="B164" t="s">
-        <v>610</v>
-      </c>
-      <c r="C164">
-        <v>0.2</v>
-      </c>
-      <c r="D164" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Blood Collection Micro. Tubes  - All Sizes', '0.2'],</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>603</v>
-      </c>
-      <c r="B165" t="s">
-        <v>611</v>
-      </c>
-      <c r="C165">
-        <v>1.9</v>
-      </c>
-      <c r="D165" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Catheter IV 20G or 25G', '1.9'],</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>603</v>
-      </c>
-      <c r="B166" t="s">
-        <v>612</v>
-      </c>
-      <c r="C166">
-        <v>1.5</v>
-      </c>
-      <c r="D166" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Catheter, Butterfly', '1.5'],</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>603</v>
-      </c>
-      <c r="B167" t="s">
-        <v>613</v>
-      </c>
-      <c r="C167">
-        <v>27.9</v>
-      </c>
-      <c r="D167" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Cidex Plus disinfectant- gallon', '27.9'],</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>603</v>
-      </c>
-      <c r="B168" t="s">
-        <v>614</v>
-      </c>
-      <c r="C168">
-        <v>0.09</v>
-      </c>
-      <c r="D168" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Chux Pad', '0.09'],</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>603</v>
-      </c>
-      <c r="B169" t="s">
-        <v>615</v>
-      </c>
-      <c r="C169">
-        <v>0.01</v>
-      </c>
-      <c r="D169" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Cotton Tip applicators 6"', '0.01'],</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>603</v>
-      </c>
-      <c r="B170" t="s">
-        <v>616</v>
-      </c>
-      <c r="C170">
-        <v>0.26</v>
-      </c>
-      <c r="D170" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Cryovials - 2 ml', '0.26'],</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>603</v>
-      </c>
-      <c r="B171" t="s">
-        <v>617</v>
-      </c>
-      <c r="C171">
-        <v>4.5</v>
-      </c>
-      <c r="D171" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Drape - Paper (Sterile)', '4.5'],</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>603</v>
-      </c>
-      <c r="B172" t="s">
-        <v>618</v>
-      </c>
-      <c r="C172">
-        <v>8</v>
-      </c>
-      <c r="D172" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Endo Tubes, disposable/ all sizes', '8'],</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>603</v>
-      </c>
-      <c r="B173" t="s">
-        <v>619</v>
-      </c>
-      <c r="C173">
-        <v>11.09</v>
-      </c>
-      <c r="D173" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Ethanol 70% (1L)', '11.09'],</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>603</v>
-      </c>
-      <c r="B174" t="s">
-        <v>620</v>
-      </c>
-      <c r="C174">
-        <v>0.19</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Falcon Tube 15ml or 50ml', '0.19'],</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>603</v>
-      </c>
-      <c r="B175" t="s">
-        <v>621</v>
-      </c>
-      <c r="C175">
-        <v>0.19</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Falcon Tube 50 ml', '0.19'],</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>603</v>
-      </c>
-      <c r="B176" t="s">
-        <v>622</v>
-      </c>
-      <c r="C176">
-        <v>1.03</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Feeding tube-red rubber 10Fr or 8Fr', '1.03'],</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>603</v>
-      </c>
-      <c r="B177" t="s">
-        <v>623</v>
-      </c>
-      <c r="C177">
-        <v>0.2</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Filter Paper/each', '0.2'],</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>603</v>
-      </c>
-      <c r="B178" t="s">
-        <v>624</v>
-      </c>
-      <c r="C178">
-        <v>0.1</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Gel Stips (Electoejaculation)', '0.1'],</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>603</v>
-      </c>
-      <c r="B179" t="s">
-        <v>625</v>
-      </c>
-      <c r="C179">
-        <v>1.27</v>
-      </c>
-      <c r="D179" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Gloves-Sterile Surgeons - all sizes', '1.27'],</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>603</v>
-      </c>
-      <c r="B180" t="s">
-        <v>626</v>
-      </c>
-      <c r="C180">
-        <v>0.5</v>
-      </c>
-      <c r="D180" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Glucose strips', '0.5'],</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>603</v>
-      </c>
-      <c r="B181" t="s">
-        <v>627</v>
-      </c>
-      <c r="C181">
-        <v>0.75</v>
-      </c>
-      <c r="D181" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Injection Plug - Surflo', '0.75'],</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>603</v>
-      </c>
-      <c r="B182" t="s">
-        <v>628</v>
-      </c>
-      <c r="C182">
-        <v>1.73</v>
-      </c>
-      <c r="D182" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'IV Extension Set, 30"', '1.73'],</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>603</v>
-      </c>
-      <c r="B183" t="s">
-        <v>629</v>
-      </c>
-      <c r="C183">
-        <v>2</v>
-      </c>
-      <c r="D183" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'IV line', '2'],</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>603</v>
-      </c>
-      <c r="B184" t="s">
-        <v>630</v>
-      </c>
-      <c r="C184">
-        <v>0.06</v>
-      </c>
-      <c r="D184" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Needles - Hypodermic, All Sizes', '0.06'],</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>603</v>
-      </c>
-      <c r="B185" t="s">
-        <v>631</v>
-      </c>
-      <c r="C185">
-        <v>2.27</v>
-      </c>
-      <c r="D185" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Needles, spinal tap- 18&amp;20 G ', '2.27'],</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>603</v>
-      </c>
-      <c r="B186" t="s">
-        <v>632</v>
-      </c>
-      <c r="C186">
-        <v>1.65</v>
-      </c>
-      <c r="D186" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Razor', '1.65'],</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>603</v>
-      </c>
-      <c r="B187" t="s">
-        <v>633</v>
-      </c>
-      <c r="C187">
-        <v>0.1</v>
-      </c>
-      <c r="D187" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'RPMI 1640/ml', '0.1'],</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>603</v>
-      </c>
-      <c r="B188" t="s">
-        <v>634</v>
-      </c>
-      <c r="C188">
-        <v>0.01</v>
-      </c>
-      <c r="D188" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Sponges - all sizes', '0.01'],</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>603</v>
-      </c>
-      <c r="B189" t="s">
-        <v>635</v>
-      </c>
-      <c r="C189">
-        <v>2.52</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Sterile Water for Irrigation - 1L', '2.52'],</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>603</v>
-      </c>
-      <c r="B190" t="s">
-        <v>636</v>
-      </c>
-      <c r="C190">
-        <v>0.92</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Stop cock, 3-way, sterile/ each', '0.92'],</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>603</v>
-      </c>
-      <c r="B191" t="s">
-        <v>637</v>
-      </c>
-      <c r="C191">
-        <v>3</v>
-      </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Suture - all sizes  ??', '3'],</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>603</v>
-      </c>
-      <c r="B192" t="s">
-        <v>638</v>
-      </c>
-      <c r="C192">
-        <v>53.3</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Syringe Caps / Box of 1000', '53.3'],</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>603</v>
-      </c>
-      <c r="B193" t="s">
-        <v>639</v>
-      </c>
-      <c r="C193">
-        <v>0.05</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Syringe Caps / Each', '0.05'],</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>603</v>
-      </c>
-      <c r="B194" t="s">
-        <v>640</v>
-      </c>
-      <c r="C194">
-        <v>0.1</v>
-      </c>
-      <c r="D194" t="str">
-        <f t="shared" si="2"/>
-        <v>['Supplies', 'Syringes - 1cc', '0.1'],</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>603</v>
-      </c>
-      <c r="B195" t="s">
-        <v>641</v>
-      </c>
-      <c r="C195">
-        <v>0.04</v>
-      </c>
-      <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="3">CONCATENATE("['",A195,"', '",B195,"', '",C195,"'],")</f>
-        <v>['Supplies', 'Syringes - 3 cc', '0.04'],</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>603</v>
-      </c>
-      <c r="B196" t="s">
-        <v>642</v>
-      </c>
-      <c r="C196">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Syringes - 5cc', '0.14'],</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>603</v>
-      </c>
-      <c r="B197" t="s">
-        <v>643</v>
-      </c>
-      <c r="C197">
-        <v>0.15</v>
-      </c>
-      <c r="D197" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Syringes - 10cc', '0.15'],</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>603</v>
-      </c>
-      <c r="B198" t="s">
-        <v>644</v>
-      </c>
-      <c r="C198">
-        <v>0.41</v>
-      </c>
-      <c r="D198" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Syringes - 20cc', '0.41'],</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>603</v>
-      </c>
-      <c r="B199" t="s">
-        <v>645</v>
-      </c>
-      <c r="C199">
-        <v>1.02</v>
-      </c>
-      <c r="D199" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Syringes - 60cc', '1.02'],</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>603</v>
-      </c>
-      <c r="B200" t="s">
-        <v>646</v>
-      </c>
-      <c r="C200">
-        <v>0.11</v>
-      </c>
-      <c r="D200" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Wypalls each', '0.11'],</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>603</v>
-      </c>
-      <c r="B201" t="s">
-        <v>647</v>
-      </c>
-      <c r="C201">
-        <v>0.2</v>
-      </c>
-      <c r="D201" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Ultrasound gel', '0.2'],</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>603</v>
-      </c>
-      <c r="B202" t="s">
-        <v>648</v>
-      </c>
-      <c r="C202">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="D202" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Vacuum Filter (1L)', '10.03'],</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>603</v>
-      </c>
-      <c r="B203" t="s">
-        <v>649</v>
-      </c>
-      <c r="C203">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D203" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Gloves (double gloving)', '0.07'],</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>603</v>
-      </c>
-      <c r="B204" t="s">
-        <v>650</v>
-      </c>
-      <c r="C204">
-        <v>0.26</v>
-      </c>
-      <c r="D204" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Shoe covers', '0.26'],</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>603</v>
-      </c>
-      <c r="B205" t="s">
-        <v>651</v>
-      </c>
-      <c r="C205">
-        <v>2.25</v>
-      </c>
-      <c r="D205" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Face mask (N95)', '2.25'],</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>603</v>
-      </c>
-      <c r="B206" t="s">
-        <v>652</v>
-      </c>
-      <c r="C206">
-        <v>0.11</v>
-      </c>
-      <c r="D206" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Bouffants/boun. caps', '0.11'],</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>603</v>
-      </c>
-      <c r="B207" t="s">
-        <v>653</v>
-      </c>
-      <c r="C207">
-        <v>1.37</v>
-      </c>
-      <c r="D207" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Face Shield', '1.37'],</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>603</v>
-      </c>
-      <c r="B208" t="s">
-        <v>654</v>
-      </c>
-      <c r="C208">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D208" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Tyvek suits', '4.6'],</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>603</v>
-      </c>
-      <c r="B209" t="s">
-        <v>655</v>
-      </c>
-      <c r="C209">
-        <v>0.5</v>
-      </c>
-      <c r="D209" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'scalpel blade', '0.5'],</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>603</v>
-      </c>
-      <c r="B210" t="s">
-        <v>656</v>
-      </c>
-      <c r="C210">
-        <v>5</v>
-      </c>
-      <c r="D210" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'prep pack', '5'],</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>603</v>
-      </c>
-      <c r="B211" t="s">
-        <v>657</v>
-      </c>
-      <c r="C211">
-        <v>0.75</v>
-      </c>
-      <c r="D211" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Scrub brush', '0.75'],</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>603</v>
-      </c>
-      <c r="B212" t="s">
-        <v>658</v>
-      </c>
-      <c r="C212">
-        <v>10</v>
-      </c>
-      <c r="D212" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'gown', '10'],</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>603</v>
-      </c>
-      <c r="B213" t="s">
-        <v>659</v>
-      </c>
-      <c r="C213">
-        <v>0.5</v>
-      </c>
-      <c r="D213" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'eye lube', '0.5'],</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>603</v>
-      </c>
-      <c r="B214" t="s">
-        <v>660</v>
-      </c>
-      <c r="C214">
-        <v>2.65</v>
-      </c>
-      <c r="D214" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'T-port', '2.65'],</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>603</v>
-      </c>
-      <c r="B215" t="s">
-        <v>661</v>
-      </c>
-      <c r="C215">
-        <v>0.75</v>
-      </c>
-      <c r="D215" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'PRN', '0.75'],</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>603</v>
-      </c>
-      <c r="B216" t="s">
-        <v>662</v>
-      </c>
-      <c r="C216">
-        <v>2</v>
-      </c>
-      <c r="D216" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Iv line', '2'],</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>603</v>
-      </c>
-      <c r="B217" t="s">
-        <v>663</v>
-      </c>
-      <c r="C217">
-        <v>1.61</v>
-      </c>
-      <c r="D217" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Plasmalyte', '1.61'],</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>603</v>
-      </c>
-      <c r="B218" t="s">
-        <v>664</v>
-      </c>
-      <c r="C218">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D218" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Atropine', '2.07'],</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>603</v>
-      </c>
-      <c r="B219" t="s">
-        <v>665</v>
-      </c>
-      <c r="C219">
-        <v>3.9</v>
-      </c>
-      <c r="D219" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Buprenex', '3.9'],</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>603</v>
-      </c>
-      <c r="B220" t="s">
-        <v>262</v>
-      </c>
-      <c r="C220">
-        <v>1.5</v>
-      </c>
-      <c r="D220" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Cefazolin', '1.5'],</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>603</v>
-      </c>
-      <c r="B221" t="s">
-        <v>666</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Ketamine', '1'],</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>603</v>
-      </c>
-      <c r="B222" t="s">
-        <v>667</v>
-      </c>
-      <c r="C222">
-        <v>4.16</v>
-      </c>
-      <c r="D222" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Medetomidine', '4.16'],</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>603</v>
-      </c>
-      <c r="B223" t="s">
-        <v>668</v>
-      </c>
-      <c r="C223">
-        <v>4.26</v>
-      </c>
-      <c r="D223" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Atipamezole', '4.26'],</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>603</v>
-      </c>
-      <c r="B224" t="s">
-        <v>669</v>
-      </c>
-      <c r="C224">
-        <v>8.6</v>
-      </c>
-      <c r="D224" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Manitol iv bag', '8.6'],</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>603</v>
-      </c>
-      <c r="B225" t="s">
-        <v>670</v>
-      </c>
-      <c r="C225">
-        <v>0.16</v>
-      </c>
-      <c r="D225" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Dexamethasone 4mg/kg/cc', '0.16'],</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>603</v>
-      </c>
-      <c r="B226" t="s">
-        <v>555</v>
-      </c>
-      <c r="C226">
-        <v>1.28</v>
-      </c>
-      <c r="D226" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Ketoprofen/cc', '1.28'],</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>603</v>
-      </c>
-      <c r="B227" t="s">
-        <v>671</v>
-      </c>
-      <c r="C227">
-        <v>0.7</v>
-      </c>
-      <c r="D227" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'NaCL 500 m l pour btls', '0.7'],</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>603</v>
-      </c>
-      <c r="B228" t="s">
-        <v>672</v>
-      </c>
-      <c r="C228">
-        <v>0.5</v>
-      </c>
-      <c r="D228" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Sodium Bicarb./cc', '0.5'],</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>603</v>
-      </c>
-      <c r="B229" t="s">
-        <v>673</v>
-      </c>
-      <c r="C229">
-        <v>1.37</v>
-      </c>
-      <c r="D229" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Baytril', '1.37'],</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>603</v>
-      </c>
-      <c r="B230" t="s">
-        <v>530</v>
-      </c>
-      <c r="C230">
-        <v>0.1</v>
-      </c>
-      <c r="D230" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Epinephrine/cc', '0.1'],</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>603</v>
-      </c>
-      <c r="B231" t="s">
-        <v>674</v>
-      </c>
-      <c r="C231">
-        <v>289</v>
-      </c>
-      <c r="D231" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'mesh', '289'],</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>603</v>
-      </c>
-      <c r="B232" t="s">
-        <v>675</v>
-      </c>
-      <c r="C232">
-        <v>3.5</v>
-      </c>
-      <c r="D232" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'cautery ground', '3.5'],</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>603</v>
-      </c>
-      <c r="B233" t="s">
-        <v>676</v>
-      </c>
-      <c r="C233">
-        <v>4</v>
-      </c>
-      <c r="D233" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Cautery', '4'],</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>603</v>
-      </c>
-      <c r="B234" t="s">
-        <v>677</v>
-      </c>
-      <c r="C234">
-        <v>7</v>
-      </c>
-      <c r="D234" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'bone wax', '7'],</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
-        <v>603</v>
-      </c>
-      <c r="B235" t="s">
-        <v>678</v>
-      </c>
-      <c r="C235">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D235" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'lap sponges', '4.1'],</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>603</v>
-      </c>
-      <c r="B236" t="s">
-        <v>679</v>
-      </c>
-      <c r="C236">
-        <v>6.1</v>
-      </c>
-      <c r="D236" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Surgifoam', '6.1'],</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
-        <v>603</v>
-      </c>
-      <c r="B237" t="s">
-        <v>680</v>
-      </c>
-      <c r="C237">
-        <v>0.11</v>
-      </c>
-      <c r="D237" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Wypalls', '0.11'],</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>603</v>
-      </c>
-      <c r="B238" t="s">
-        <v>614</v>
-      </c>
-      <c r="C238">
-        <v>0.09</v>
-      </c>
-      <c r="D238" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Chux Pad', '0.09'],</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>603</v>
-      </c>
-      <c r="B239" t="s">
-        <v>681</v>
-      </c>
-      <c r="C239">
-        <v>0.1</v>
-      </c>
-      <c r="D239" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'isooflorane/hr', '0.1'],</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>603</v>
-      </c>
-      <c r="B240" t="s">
-        <v>682</v>
-      </c>
-      <c r="C240">
-        <v>0.01</v>
-      </c>
-      <c r="D240" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Alcohol Swab', '0.01'],</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>603</v>
-      </c>
-      <c r="B241" t="s">
-        <v>683</v>
-      </c>
-      <c r="C241">
-        <v>0.01</v>
-      </c>
-      <c r="D241" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', '3x3 gauze', '0.01'],</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>603</v>
-      </c>
-      <c r="B242" t="s">
-        <v>607</v>
-      </c>
-      <c r="C242">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D242" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Biopsy skin punch', '4.4'],</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>603</v>
-      </c>
-      <c r="B243" t="s">
-        <v>684</v>
-      </c>
-      <c r="C243">
-        <v>1.41</v>
-      </c>
-      <c r="D243" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'surgeons gloves', '1.41'],</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>603</v>
-      </c>
-      <c r="B244" t="s">
-        <v>685</v>
-      </c>
-      <c r="C244">
-        <v>6.6</v>
-      </c>
-      <c r="D244" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Steri drape', '6.6'],</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>603</v>
-      </c>
-      <c r="B245" t="s">
-        <v>686</v>
-      </c>
-      <c r="C245">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="D245" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'paper drape', '8.97'],</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>603</v>
-      </c>
-      <c r="B246" t="s">
-        <v>687</v>
-      </c>
-      <c r="C246">
-        <v>3</v>
-      </c>
-      <c r="D246" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'suture', '3'],</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>603</v>
-      </c>
-      <c r="B247" t="s">
-        <v>688</v>
-      </c>
-      <c r="C247">
-        <v>21.25</v>
-      </c>
-      <c r="D247" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Gerneral Pan', '21.25'],</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>603</v>
-      </c>
-      <c r="B248" t="s">
-        <v>689</v>
-      </c>
-      <c r="C248">
-        <v>21.25</v>
-      </c>
-      <c r="D248" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Nuero Pan', '21.25'],</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>603</v>
-      </c>
-      <c r="B249" t="s">
-        <v>606</v>
-      </c>
-      <c r="C249">
-        <v>5</v>
-      </c>
-      <c r="D249" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Biopsy Pack', '5'],</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>603</v>
-      </c>
-      <c r="B250" t="s">
-        <v>690</v>
-      </c>
-      <c r="C250">
-        <v>21.25</v>
-      </c>
-      <c r="D250" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Lap pack', '21.25'],</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>603</v>
-      </c>
-      <c r="B251" t="s">
-        <v>691</v>
-      </c>
-      <c r="C251">
-        <v>21.25</v>
-      </c>
-      <c r="D251" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Steam instrument pan', '21.25'],</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>603</v>
-      </c>
-      <c r="B252" t="s">
-        <v>692</v>
-      </c>
-      <c r="C252">
-        <v>23.75</v>
-      </c>
-      <c r="D252" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Gas intstrument pan', '23.75'],</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>603</v>
-      </c>
-      <c r="B253" t="s">
-        <v>693</v>
-      </c>
-      <c r="C253">
-        <v>3</v>
-      </c>
-      <c r="D253" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Steam peel pack', '3'],</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
-        <v>603</v>
-      </c>
-      <c r="B254" t="s">
-        <v>694</v>
-      </c>
-      <c r="C254">
-        <v>4</v>
-      </c>
-      <c r="D254" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Gas peel pack', '4'],</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
-        <v>603</v>
-      </c>
-      <c r="B255" t="s">
-        <v>695</v>
-      </c>
-      <c r="C255">
-        <v>15</v>
-      </c>
-      <c r="D255" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Anes fee', '15'],</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>603</v>
-      </c>
-      <c r="B256" t="s">
-        <v>696</v>
-      </c>
-      <c r="C256">
-        <v>23.5</v>
-      </c>
-      <c r="D256" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'Lap scope', '23.5'],</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>603</v>
-      </c>
-      <c r="B257" t="s">
-        <v>697</v>
-      </c>
-      <c r="C257">
-        <v>20</v>
-      </c>
-      <c r="D257" t="str">
-        <f t="shared" si="3"/>
-        <v>['Supplies', 'OR fee pr hr', '20'],</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
-        <v>698</v>
-      </c>
-      <c r="B258" t="s">
-        <v>709</v>
-      </c>
-      <c r="C258">
-        <v>7.3</v>
-      </c>
-      <c r="D258" t="str">
-        <f t="shared" si="3"/>
-        <v>['EQUIPMENT USE FEES', 'Chair \'use\' Fee', '7.3'],</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
-        <v>698</v>
-      </c>
-      <c r="B259" t="s">
-        <v>710</v>
-      </c>
-      <c r="C259">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D259" t="str">
-        <f t="shared" ref="D259:D271" si="4">CONCATENATE("['",A259,"', '",B259,"', '",C259,"'],")</f>
-        <v>['EQUIPMENT USE FEES', 'Electroejac. Machine \'use\' fee', '2.3'],</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>698</v>
-      </c>
-      <c r="B260" t="s">
-        <v>711</v>
-      </c>
-      <c r="C260">
-        <v>0.8</v>
-      </c>
-      <c r="D260" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'Gavage Box \'use\' Fee', '0.8'],</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
-        <v>698</v>
-      </c>
-      <c r="B261" t="s">
-        <v>699</v>
-      </c>
-      <c r="C261">
-        <v>50</v>
-      </c>
-      <c r="D261" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'OR Fee', '50'],</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
-        <v>698</v>
-      </c>
-      <c r="B262" t="s">
-        <v>700</v>
-      </c>
-      <c r="C262">
-        <v>10</v>
-      </c>
-      <c r="D262" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'Pulse Ox monitoring', '10'],</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>698</v>
-      </c>
-      <c r="B263" t="s">
-        <v>701</v>
-      </c>
-      <c r="C263">
-        <v>5.5</v>
-      </c>
-      <c r="D263" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'Sterilization fee- Peel Pack Gas', '5.5'],</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
-        <v>698</v>
-      </c>
-      <c r="B264" t="s">
-        <v>702</v>
-      </c>
-      <c r="C264">
-        <v>4.5</v>
-      </c>
-      <c r="D264" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'Sterilization fee- Peel Pack Steam', '4.5'],</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
-        <v>698</v>
-      </c>
-      <c r="B265" t="s">
-        <v>712</v>
-      </c>
-      <c r="C265">
-        <v>14.63</v>
-      </c>
-      <c r="D265" t="str">
-        <f t="shared" si="4"/>
-        <v>['EQUIPMENT USE FEES', 'Ultrasound \'use\' Fee', '14.63'],</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
-        <v>444</v>
-      </c>
-      <c r="B266" t="s">
-        <v>703</v>
-      </c>
-      <c r="C266">
-        <v>0.06</v>
-      </c>
-      <c r="D266" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'gloves', '0.06'],</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
-        <v>444</v>
-      </c>
-      <c r="B267" t="s">
-        <v>704</v>
-      </c>
-      <c r="C267">
-        <v>0.26</v>
-      </c>
-      <c r="D267" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'shoe covers', '0.26'],</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
-        <v>444</v>
-      </c>
-      <c r="B268" t="s">
-        <v>705</v>
-      </c>
-      <c r="C268">
-        <v>0.13</v>
-      </c>
-      <c r="D268" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'masks', '0.13'],</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>444</v>
-      </c>
-      <c r="B269" t="s">
-        <v>706</v>
-      </c>
-      <c r="C269">
-        <v>1.37</v>
-      </c>
-      <c r="D269" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'face shields', '1.37'],</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
-        <v>444</v>
-      </c>
-      <c r="B270" t="s">
-        <v>707</v>
-      </c>
-      <c r="C270">
-        <v>0.12</v>
-      </c>
-      <c r="D270" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'Boundary Surgeons Caps', '0.12'],</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
-        <v>444</v>
-      </c>
-      <c r="B271" t="s">
-        <v>654</v>
-      </c>
-      <c r="C271">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D271" t="str">
-        <f t="shared" si="4"/>
-        <v>['PPE', 'Tyvek suits', '4.6'],</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("('",A2,"', '",B2,"'),")</f>
-        <v>('blood', ''),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C38" si="0">CONCATENATE("('",A3,"', '",B3,"'),")</f>
-        <v>('both eyes', ''),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>('breast milk', ''),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>('buccal', ''),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>('buccal swab', ''),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>('bvirus', ''),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>('cells', ''),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>('chopped dispersed tissue', ''),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>('chopped dispersed tissue swab', ''),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>('eye', ''),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>('eyes', ''),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>('feces', ''),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>('genital', ''),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>('genital swab', ''),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>('hbv', ''),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>('hep blood', ''),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>('l. eye', ''),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>('l. eye swab', ''),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>('lesion', ''),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>('lymph node', ''),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>('r. eye', ''),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>('r. eye swab', ''),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>('Rectal', ''),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>('Rectal Swab', ''),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>('semen', ''),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>('serum', ''),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>('siv', ''),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>('spleen', ''),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>('srv', ''),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>('stlv-1', ''),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>('stool', ''),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>('swab buccal', ''),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>('swab genital', ''),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>('tissue', ''),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>('whole blood', ''),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>('whole tissue', ''),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>('whole tissue swab', ''),</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>